--- a/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
+++ b/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FAB0C9-FC46-4E4C-92A9-7FBDA905FE07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E83240-46FC-46DF-82F7-17295D5CA66C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11390" tabRatio="894" firstSheet="1" activeTab="1" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -648,6 +648,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{7C32E5BA-FB02-42A6-81B1-F4CE0BD47B44}"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates zip codes that have been anonymized." sqref="B1" xr:uid="{1DE16DDD-4058-45A8-BA24-0FEEC25CF001}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -701,6 +704,9 @@
     <sortCondition ref="A2:A712"/>
     <sortCondition ref="B2:B712"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates zip codes that have been anonymized." sqref="B1" xr:uid="{C802CE93-E6EF-46B4-9763-C3800FBF168B}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -750,6 +756,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{56A1A629-CA91-47DF-B266-9A81672C9993}"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates zip codes that have been anonymized." sqref="B1" xr:uid="{E72413A1-6D99-4165-A4A6-1A894F2AA13F}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -803,6 +812,9 @@
     <sortCondition ref="A2:A744"/>
     <sortCondition ref="B2:B744"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates zip codes that have been anonymized." sqref="B1" xr:uid="{8DF1027C-E14C-4157-B8D3-524BF6C91B46}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -856,6 +868,9 @@
     <sortCondition ref="A2:A685"/>
     <sortCondition ref="B2:B685"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates zip codes that have been anonymized." sqref="B1" xr:uid="{1E057445-5840-4C57-AD8A-1E16505F1AF2}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -882,7 +897,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8662,7 +8677,7 @@
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates that those zip codes have been anonymized because that zip code is used by fewer than 10 borrowers system-wide." sqref="B1" xr:uid="{D92B399E-F56A-4EF7-A3CB-B138F4765858}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates zip codes that have been anonymized." sqref="B1" xr:uid="{D92B399E-F56A-4EF7-A3CB-B138F4765858}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8704,6 +8719,9 @@
     <sortCondition ref="A2:A696"/>
     <sortCondition ref="B2:B696"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates zip codes that have been anonymized." sqref="B1" xr:uid="{5FB4A901-E50F-4CE3-9562-51251A274DBD}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8757,6 +8775,9 @@
     <sortCondition ref="A2:A674"/>
     <sortCondition ref="B2:B674"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates zip codes that have been anonymized." sqref="B1" xr:uid="{9DACE48B-FBDA-410B-AC57-A77707C52B74}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8781,8 +8802,9 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="topRight" sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -8806,6 +8828,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{39260CD5-B183-4F8E-B865-E4FCFB0FCA98}"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates zip codes that have been anonymized." sqref="B1" xr:uid="{7AD32CEF-7EEE-4F66-A8DB-CFA4E4E354DB}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8872,6 +8897,9 @@
     <sortCondition ref="A2:A648"/>
     <sortCondition ref="B2:B648"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates zip codes that have been anonymized." sqref="B1" xr:uid="{DAD1236B-34AE-448B-9419-ABA54A9A69FA}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8925,6 +8953,9 @@
     <sortCondition ref="A2:A720"/>
     <sortCondition ref="B2:B720"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates zip codes that have been anonymized." sqref="B1" xr:uid="{8592973C-1C53-4C03-A3A3-C3120BF1DA69}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8974,6 +9005,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{419F4E40-BF52-4D5C-8BEF-0CD3CC7A9C4F}"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates zip codes that have been anonymized." sqref="B1" xr:uid="{D75C5898-6933-409C-8625-FC4E49751A45}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
+++ b/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1030AC3-B794-4A93-9892-B8EC2D88DBA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F22EB-3CDD-49AD-BA89-AF3E09F54D43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" firstSheet="1" activeTab="1" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="57">
   <si>
     <t>Library</t>
   </si>
@@ -16555,7 +16555,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A65A5CD-B538-4B7C-B2A7-48592120D8ED}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C716"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -16582,11 +16582,7867 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>64098</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C7">
+        <v>5441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C9">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C14">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66205</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C26">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C28">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C32">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>67219</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C39">
+        <v>6649</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C40">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C43">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C47">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C50">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C52">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C54">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C60">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C65">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C67">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C68">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C69">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C70">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C74">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C76">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C79">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C82">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C83">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C84">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66213</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C90">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C91">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C92">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66401</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>66713</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66720</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>66945</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1">
+        <v>67147</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>67154</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1">
+        <v>67357</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1">
+        <v>67460</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
+        <v>67558</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1">
+        <v>67749</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1">
+        <v>67834</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1">
+        <v>67901</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C126">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C127">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C136">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C137">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C138">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C139">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C140">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C141">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C143">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C144">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="1">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C147">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C150">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C151">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C152">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C153">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" s="1">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C157">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C158">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C159">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C164">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C166">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C169">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C170">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C171">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C173">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B174" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B175" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B177" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C177">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B178" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C178">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C180">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B181" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182" s="1">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C183">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C184">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C186">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C187">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C188">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C189">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C191">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B195" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C195">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C196">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C197">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" s="1">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C199">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C200">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C202">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B205" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C205">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B206" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C206">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C207">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C208">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C209">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C210">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B211" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C211">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B212" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C212">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C213">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B214" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C214">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B216" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B217" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B218" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B220" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B221" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B222" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B223" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B224" s="1">
+        <v>67801</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B225" s="1">
+        <v>67839</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B229" s="1">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B230" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B231" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B233" s="1">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C234">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C236">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B237" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B240" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B242" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C242">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B243" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C243">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B244" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C244">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B245" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C245">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B246" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B247" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C247">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B248" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C248">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B249" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C249">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B250" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C250">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B251" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C251">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B252" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B253" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C253">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B254" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C254">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B255" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C255">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B256" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C256">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B257" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B258" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C258">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B259" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B260" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B261" s="1">
+        <v>67572</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B262" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B263" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B265" s="1">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B266" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B267" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B268" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B269" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C269">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C270">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B271" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C271">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B272" s="1">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B273" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C273">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B274" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C275">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B276" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C276">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B277" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C277">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B278" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C278">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B279" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B280" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C280">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B281" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C281">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B282" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C282">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B283" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C283">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B284" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B285" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C285">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B286" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C288">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B289" s="1">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B290" s="1">
+        <v>64098</v>
+      </c>
+      <c r="C290">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B291" s="1">
+        <v>64151</v>
+      </c>
+      <c r="C291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B292" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C292">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B293" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C293">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B294" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C294">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B295" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B296" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B297" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C297">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B298" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C298">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B299" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C299">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B300" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C300">
+        <v>9238</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B301" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C301">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B302" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B303" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C303">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B304" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C304">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B305" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B306" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C306">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B307" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B308" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C308">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B309" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C309">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B310" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B311" s="1">
+        <v>66219</v>
+      </c>
+      <c r="C311">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C312">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B313" s="1">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B314" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B315" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C315">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B316" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C316">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B317" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B318" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C318">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B319" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C319">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B320" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C320">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B321" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C321">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C322">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C324">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B325" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C325">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B326" s="1">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B327" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C327">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B328" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B329" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C329">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B330" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C330">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C331">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B333" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C333">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B334" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C334">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B335" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C335">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C336">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B338" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B339" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B340" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C340">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B341" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C341">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B342" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B343" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C344">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B345" s="1">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B346" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C346">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B347" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C347">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B348" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C348">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B349" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C349">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C350">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B351" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B352" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C352">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66429</v>
+      </c>
+      <c r="C353">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B354" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C355">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B356" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C356">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C357">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C358">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C359">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B360" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C360">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C361">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B362" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C362">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B363" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C363">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B365" s="1">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B366" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C366">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B367" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B368" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C368">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B369" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C369">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C370">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B371" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B372" s="1">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B373" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C373">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B374" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B375" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C375">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C376">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B377" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C377">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B378" s="1">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C379">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B380" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C380">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B381" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C381">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B382" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C382">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B383" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C383">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B384" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C384">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B385" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C385">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B386" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B387" s="1">
+        <v>66616</v>
+      </c>
+      <c r="C387">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66830</v>
+      </c>
+      <c r="C388">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C389">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C391">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B392" s="1">
+        <v>0</v>
+      </c>
+      <c r="C392">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B393" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B394" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C394">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B395" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C395">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B396" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C396">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C397">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B398" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C398">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B399" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C399">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B400" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C400">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B401" s="1">
+        <v>66056</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B402" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C402">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C403">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C404">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C405">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C406">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C407">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B408" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B409" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B410" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B411" s="1">
+        <v>67037</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B412" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B413" s="1">
+        <v>67301</v>
+      </c>
+      <c r="C413">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B414" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B415" s="1">
+        <v>67432</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B416" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B417" s="1">
+        <v>67558</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B418" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B419" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C420">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B421" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B422" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C423">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B424" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C424">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B425" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C425">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B426" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C426">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B427" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C427">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B428" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C428">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B429" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C430">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C431">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B432" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C432">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B433" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C433">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C434">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B435" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C435">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B436" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C436">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B437" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B438" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C438">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B439" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C439">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B440" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C440">
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B441" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C441">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B442" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C442">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B443" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C443">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B444" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C444">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B445" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C445">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B446" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C446">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B447" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C447">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B448" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B449" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C449">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B450" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C450">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B451" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B452" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C452">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B453" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C453">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B454" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C454">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B455" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B456" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C456">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B457" s="1">
+        <v>66748</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B458" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B459" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C459">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B461" s="1">
+        <v>66935</v>
+      </c>
+      <c r="C461">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B462" s="1">
+        <v>67039</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B463" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B464" s="1">
+        <v>67110</v>
+      </c>
+      <c r="C464">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B465" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B466" s="1">
+        <v>67147</v>
+      </c>
+      <c r="C466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B467" s="1">
+        <v>67152</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B468" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B469" s="1">
+        <v>67439</v>
+      </c>
+      <c r="C469">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B470" s="1">
+        <v>67460</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B471" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B472" s="1">
+        <v>67554</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B473" s="1">
+        <v>67572</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B474" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B475" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B476" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C476">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B477" s="1">
+        <v>67749</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B478" s="1">
+        <v>67752</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B479" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C480">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B481" s="1">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B482" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C482">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B483" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C483">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B484" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C484">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C485">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C486">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B487" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C487">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B488" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B489" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C489">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B490" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C490">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B491" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C491">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B492" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C492">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B493" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B494" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B495" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B496" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C496">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B497" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C497">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B498" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C498">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B499" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C499">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B500" s="1">
+        <v>0</v>
+      </c>
+      <c r="C500">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B501" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C501">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B502" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C502">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B503" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C503">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B504" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B505" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C505">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B506" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C506">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B507" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C507">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B508" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C508">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B509" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C509">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B510" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C510">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B511" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C511">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B512" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C512">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B513" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B514" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B515" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B516" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B517" s="1">
+        <v>67467</v>
+      </c>
+      <c r="C517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B518" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B519" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B520" s="1">
+        <v>67669</v>
+      </c>
+      <c r="C520">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B521" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C521">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C522">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B523" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C523">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B524" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C524">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B525" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C525">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B526" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C526">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B527" s="1">
+        <v>0</v>
+      </c>
+      <c r="C527">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C528">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B529" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C529">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C530">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B531" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C531">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C532">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C533">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B534" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C534">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B535" s="1">
+        <v>0</v>
+      </c>
+      <c r="C535">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B536" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C536">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B537" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C537">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B538" s="1">
+        <v>0</v>
+      </c>
+      <c r="C538">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B539" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C539">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B540" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C540">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B541" s="1">
+        <v>0</v>
+      </c>
+      <c r="C541">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B542" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B543" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C543">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B544" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B545" s="1">
+        <v>67467</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B546" s="1">
+        <v>67880</v>
+      </c>
+      <c r="C546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B547" s="1">
+        <v>0</v>
+      </c>
+      <c r="C547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B548" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C548">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B549" s="1">
+        <v>0</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B550" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C550">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B551" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C551">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B552" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C552">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B553" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C553">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B554" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C554">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B555" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C555">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B556" s="1">
+        <v>0</v>
+      </c>
+      <c r="C556">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B557" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C557">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B558" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B559" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C559">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B560" s="1">
+        <v>66423</v>
+      </c>
+      <c r="C560">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C561">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C562">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C563">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B564" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C564">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B565" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C565">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B567" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C567">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B568" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C568">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B569" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C569">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B570" s="1">
+        <v>0</v>
+      </c>
+      <c r="C570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B571" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C571">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B572" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C572">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B573" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B574" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C574">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C575">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C576">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C577">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C578">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B579" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C579">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B580" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C580">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B581" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C581">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B582" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C582">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B583" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B584" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C584">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B585" s="1">
+        <v>67037</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B586" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B587" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B588" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C588">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B589" s="1">
+        <v>67748</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B590" s="1">
+        <v>67756</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B591" s="1">
+        <v>68337</v>
+      </c>
+      <c r="C591">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B592" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C592">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C593">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B594" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C594">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B595" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C595">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B596" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C596">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B597" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C597">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B598" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C598">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B599" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B600" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C600">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B601" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C601">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B602" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C602">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B603" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C603">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B604" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C604">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B605" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C605">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B606" s="1">
+        <v>68345</v>
+      </c>
+      <c r="C606">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B607" s="1">
+        <v>68420</v>
+      </c>
+      <c r="C607">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B608" s="1">
+        <v>0</v>
+      </c>
+      <c r="C608">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B609" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C609">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B610" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C610">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B611" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C611">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B612" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C612">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B613" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B614" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C614">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B615" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C615">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B616" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C616">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B617" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C617">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B618" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C618">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B619" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C619">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B620" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C620">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B621" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C621">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B622" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C622">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B623" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C623">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B624" s="1">
+        <v>0</v>
+      </c>
+      <c r="C624">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B625" s="1">
+        <v>64118</v>
+      </c>
+      <c r="C625">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B626" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C626">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B627" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C627">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B628" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C628">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B629" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C629">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B630" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C630">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B631" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C631">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B632" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C632">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B633" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C633">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B634" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C634">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B635" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C635">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B636" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C636">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B637" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C637">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B638" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C638">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B639" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C639">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B640" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C640">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B641" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B642" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B643" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C643">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B644" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C644">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B645" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C645">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B646" s="1">
+        <v>66616</v>
+      </c>
+      <c r="C646">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C647">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C648">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B649" s="1">
+        <v>0</v>
+      </c>
+      <c r="C649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B650" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C650">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B651" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C651">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B652" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C652">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B653" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C653">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B654" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C654">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B655" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C655">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B656" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C656">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C657">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B658" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C658">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B659" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C659">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B660" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C660">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B661" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C661">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B662" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B663" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C663">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B664" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C664">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B665" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C665">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B666" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C666">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B667" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B668" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C668">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B669" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C669">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B670" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C670">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B671" s="1">
+        <v>0</v>
+      </c>
+      <c r="C671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B672" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C672">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B673" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B674" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C674">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B675" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B676" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B677" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B678" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C678">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B679" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C679">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B680" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C680">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B681" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C681">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B682" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C682">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B683" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C683">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B684" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B685" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C685">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B686" s="1">
+        <v>66401</v>
+      </c>
+      <c r="C686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B687" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B688" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C688">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B689" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B690" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C690">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B691" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C691">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B692" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C692">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B693" s="1">
+        <v>66720</v>
+      </c>
+      <c r="C693">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B694" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C694">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B695" s="1">
+        <v>67010</v>
+      </c>
+      <c r="C695">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B696" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C696">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B697" s="1">
+        <v>67152</v>
+      </c>
+      <c r="C697">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B698" s="1">
+        <v>67154</v>
+      </c>
+      <c r="C698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B699" s="1">
+        <v>67420</v>
+      </c>
+      <c r="C699">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B700" s="1">
+        <v>67460</v>
+      </c>
+      <c r="C700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B701" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B702" s="1">
+        <v>67558</v>
+      </c>
+      <c r="C702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B703" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C703">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B704" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C704">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B705" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B706" s="1">
+        <v>67871</v>
+      </c>
+      <c r="C706">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C707">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B708" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B709" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C709">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B710" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C710">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B711" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C711">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B712" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C712">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B713" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C713">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B714" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C714">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B715" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B716" s="1">
+        <v>67756</v>
+      </c>
+      <c r="C716">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{913D352C-CB32-4B25-B044-E9106CD19BD3}"/>
-  <sortState ref="A2:C720">
-    <sortCondition ref="A2:A720"/>
-    <sortCondition ref="B2:B720"/>
+  <sortState ref="A2:C716">
+    <sortCondition ref="A2:A716"/>
+    <sortCondition ref="B2:B716"/>
   </sortState>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates zip codes that have been anonymized." sqref="B1" xr:uid="{8592973C-1C53-4C03-A3A3-C3120BF1DA69}"/>

--- a/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
+++ b/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F22EB-3CDD-49AD-BA89-AF3E09F54D43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EFF32B-0BA1-466E-83B2-D32BD67EC8B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" firstSheet="1" activeTab="1" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="57">
   <si>
     <t>Library</t>
   </si>
@@ -24467,7 +24467,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633557D5-54F2-4CB6-8A69-0FAA84994F48}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C678"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -24492,6 +24492,7447 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>64098</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C6">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66205</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C27">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C33">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C39">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C43">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C44">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C46">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C47">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C50">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C51">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C52">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C54">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C56">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C63">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C66">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C69">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C70">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C74">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C75">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C77">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C81">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66106</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C85">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C86">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C88">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66213</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C95">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C96">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C97">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>66612</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>66713</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>66945</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1">
+        <v>67460</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
+        <v>67558</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1">
+        <v>67672</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1">
+        <v>67737</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1">
+        <v>67749</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1">
+        <v>67752</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1">
+        <v>67951</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C129">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C130">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C135">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C136">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C138">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C139">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C140">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C142">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C144">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="1">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C146">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C148">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C150">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C151">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" s="1">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C154">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C155">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C156">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="1">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C162">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C165">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C166">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C167">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B170" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B171" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C171">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C172">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173" s="1">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B174" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B175" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C175">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B178" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C180">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C182">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C184">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C185">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C186">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C187">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C189">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C193">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C194">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" s="1">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C196">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B197" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C198">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C199">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C200">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C201">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C202">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C203">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C204">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B205" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C205">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B206" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C208">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C209">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C210">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B211" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B212" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B213" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B214" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" s="1">
+        <v>67860</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B216" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C216">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B217" s="1">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B218" s="1">
+        <v>64504</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B219" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B220" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B221" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B223" s="1">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B224" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B226" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B229" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B230" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B231" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B232" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B233" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C234">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C235">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B237" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C237">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C239">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B240" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C241">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B242" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B243" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C243">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B244" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C244">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B245" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C245">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B246" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C246">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B247" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C247">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B248" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B249" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C249">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B250" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B251" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C251">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B252" s="1">
+        <v>66713</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B253" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B254" s="1">
+        <v>67010</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B255" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B257" s="1">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B258" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B259" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C260">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B261" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C261">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B262" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B263" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B264" s="1">
+        <v>67748</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B265" s="1">
+        <v>67950</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B267" s="1">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B268" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B269" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C269">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C270">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B271" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C271">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B272" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C272">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B273" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B274" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C274">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C275">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B276" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C276">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B277" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B278" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C278">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B279" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C279">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B281" s="1">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B282" s="1">
+        <v>64098</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B283" s="1">
+        <v>64119</v>
+      </c>
+      <c r="C283">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B284" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C284">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B285" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C285">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B286" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B287" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C287">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B288" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C288">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B289" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C289">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B290" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C290">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B291" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C291">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B292" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C292">
+        <v>8372</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B293" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C293">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B294" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C294">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B295" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C295">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B296" s="1">
+        <v>66103</v>
+      </c>
+      <c r="C296">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B297" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C297">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B298" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B299" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C299">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B300" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C301">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B302" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B303" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C303">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B304" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C304">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B305" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C305">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B306" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C306">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B307" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B308" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C308">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B309" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C309">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B310" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C310">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B311" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C311">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B312" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C312">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B313" s="1">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B314" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C314">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B315" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C315">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B316" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C316">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B317" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C317">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B318" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C318">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B319" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C319">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B320" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C320">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B321" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C321">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C323">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B325" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C325">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B326" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C326">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B327" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B328" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C328">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B329" s="1">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B330" s="1">
+        <v>64133</v>
+      </c>
+      <c r="C330">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C331">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C332">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B333" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C333">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B334" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C334">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B335" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C335">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B338" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B339" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C339">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B340" s="1">
+        <v>66429</v>
+      </c>
+      <c r="C340">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B341" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B342" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C342">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B343" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C343">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C344">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C345">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B346" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C346">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B347" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C347">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B348" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C348">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B349" s="1">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B351" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B352" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C352">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B354" s="1">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C355">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B356" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C356">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C357">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C359">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B360" s="1">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66204</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B362" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C362">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B363" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C363">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B364" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C364">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B365" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C365">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B366" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C366">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B367" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C367">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B368" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C368">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B369" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C369">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66616</v>
+      </c>
+      <c r="C370">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B371" s="1">
+        <v>66830</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B372" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B373" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C373">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B375" s="1">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B377" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C377">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B378" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C378">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C379">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B380" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C380">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B381" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C381">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B382" s="1">
+        <v>66056</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B383" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C383">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B384" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C384">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B385" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C385">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B386" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C386">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B387" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C388">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B392" s="1">
+        <v>67737</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B393" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B394" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C395">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B396" s="1">
+        <v>0</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B398" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B399" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B400" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C400">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B401" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C401">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B402" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C402">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C403">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C408">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B409" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C409">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B410" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B411" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C411">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B412" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C412">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B413" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C413">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B414" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C414">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B415" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C415">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B416" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C416">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B417" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B418" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C418">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B419" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C419">
+        <v>4914</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B420" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C420">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B421" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C421">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B422" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C422">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C423">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B424" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C424">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B425" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C425">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B426" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C426">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B427" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B428" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B429" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C429">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B430" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C430">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B432" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B433" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C433">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B435" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B436" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C436">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B437" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B438" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C438">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B439" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C439">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B440" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B441" s="1">
+        <v>66748</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B442" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B443" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B444" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B445" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B446" s="1">
+        <v>66935</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B447" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B448" s="1">
+        <v>67110</v>
+      </c>
+      <c r="C448">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B449" s="1">
+        <v>67154</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B450" s="1">
+        <v>67219</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B451" s="1">
+        <v>67439</v>
+      </c>
+      <c r="C451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B452" s="1">
+        <v>67504</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B453" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B454" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B455" s="1">
+        <v>67672</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B456" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C457">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B458" s="1">
+        <v>0</v>
+      </c>
+      <c r="C458">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B459" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C459">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C460">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B461" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C461">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B462" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C462">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B463" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C463">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B464" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C464">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B465" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B466" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C466">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B467" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B468" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C468">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B469" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C469">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B470" s="1">
+        <v>0</v>
+      </c>
+      <c r="C470">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B471" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C471">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B472" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C472">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B473" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B474" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C474">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B475" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C475">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B476" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C476">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B477" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C477">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B478" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C478">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B479" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C479">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B480" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C480">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B481" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C481">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B482" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C482">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B483" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C483">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B484" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C484">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B487" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B488" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B489" s="1">
+        <v>66762</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B490" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B491" s="1">
+        <v>67039</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B492" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B493" s="1">
+        <v>67337</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B494" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B495" s="1">
+        <v>67558</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B496" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C496">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B497" s="1">
+        <v>67901</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C498">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B500" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C500">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B501" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C501">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B502" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C502">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B503" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C503">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B504" s="1">
+        <v>0</v>
+      </c>
+      <c r="C504">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B505" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C505">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B506" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B507" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B508" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C508">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B509" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C509">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B510" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C510">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B511" s="1">
+        <v>0</v>
+      </c>
+      <c r="C511">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B512" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C512">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B513" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B514" s="1">
+        <v>0</v>
+      </c>
+      <c r="C514">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B515" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C515">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B516" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B517" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C517">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B518" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B519" s="1">
+        <v>67749</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B520" s="1">
+        <v>0</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B521" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C521">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B522" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C522">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B523" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C523">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B524" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C524">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B525" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C525">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B526" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C526">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B527" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B529" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C529">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C530">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B531" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C531">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66423</v>
+      </c>
+      <c r="C532">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C533">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B534" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C534">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B535" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B536" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C536">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B537" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C537">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B538" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C538">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B539" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C539">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B540" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C540">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B541" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C541">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B542" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C542">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B543" s="1">
+        <v>0</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B544" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C544">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B545" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C545">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B546" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C546">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B547" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B548" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C548">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B549" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C549">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B550" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C550">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B551" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B552" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C552">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B553" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B554" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C554">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B555" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C555">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B556" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C556">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B557" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C557">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B558" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B559" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C559">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B560" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C560">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C561">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66736</v>
+      </c>
+      <c r="C562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66861</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B564" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B565" s="1">
+        <v>67063</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B566" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B567" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B568" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C568">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B569" s="1">
+        <v>67748</v>
+      </c>
+      <c r="C569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B570" s="1">
+        <v>68337</v>
+      </c>
+      <c r="C570">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B571" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C571">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C572">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B573" s="1">
+        <v>0</v>
+      </c>
+      <c r="C573">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B574" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C574">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C575">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C576">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C577">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C578">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B579" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C579">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B580" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C580">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B581" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C581">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B582" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B583" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C583">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B584" s="1">
+        <v>68345</v>
+      </c>
+      <c r="C584">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B585" s="1">
+        <v>68420</v>
+      </c>
+      <c r="C585">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B586" s="1">
+        <v>0</v>
+      </c>
+      <c r="C586">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B587" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C587">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B588" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C588">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B589" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C589">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B590" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C590">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B591" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B592" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C592">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B593" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C593">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B594" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C594">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B595" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C595">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B596" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C596">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B597" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C597">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B598" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C598">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B599" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C599">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B600" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C600">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B601" s="1">
+        <v>0</v>
+      </c>
+      <c r="C601">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B602" s="1">
+        <v>64118</v>
+      </c>
+      <c r="C602">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B603" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C603">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B604" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C604">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B605" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C605">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B606" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C606">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B607" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B608" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C608">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B609" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C609">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B610" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C610">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B611" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C611">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B612" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B613" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C613">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B614" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C614">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B615" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C615">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B616" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C616">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C617">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B618" s="1">
+        <v>0</v>
+      </c>
+      <c r="C618">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B619" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C619">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B620" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C620">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B621" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C621">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B622" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C622">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B623" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C623">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B624" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C624">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B625" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C625">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B626" s="1">
+        <v>0</v>
+      </c>
+      <c r="C626">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B627" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C627">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B628" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C628">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B629" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C629">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B630" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C630">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B631" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C631">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B632" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C632">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B633" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C633">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B634" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B635" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C635">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B636" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B637" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C637">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B638" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C638">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B639" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C639">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B640" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C640">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B641" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C641">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B642" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C642">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B643" s="1">
+        <v>0</v>
+      </c>
+      <c r="C643">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B644" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B645" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B646" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C646">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B647" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C647">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B648" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C648">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B649" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C649">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B650" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C650">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B651" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B652" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C652">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B653" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C653">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B654" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C654">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B655" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C655">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B656" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C656">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B657" s="1">
+        <v>66743</v>
+      </c>
+      <c r="C657">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B658" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B659" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C659">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B660" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B661" s="1">
+        <v>67010</v>
+      </c>
+      <c r="C661">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B662" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C662">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B663" s="1">
+        <v>67663</v>
+      </c>
+      <c r="C663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B664" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C664">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B665" s="1">
+        <v>67950</v>
+      </c>
+      <c r="C665">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C666">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B667" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C667">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B668" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C668">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B669" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C669">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B670" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C670">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B671" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C671">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B672" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C672">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B673" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C673">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B674" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C674">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B675" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C675">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B676" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B677" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B678" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C678">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
+++ b/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EFF32B-0BA1-466E-83B2-D32BD67EC8B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01FFFB6-C924-426D-816F-3DA5B6D0CB39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" firstSheet="1" activeTab="1" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3647" uniqueCount="57">
   <si>
     <t>Library</t>
   </si>
@@ -622,7 +622,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F019DD36-2470-4123-8256-7D454BF2199F}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C727"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -647,6 +647,7986 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C5">
+        <v>6045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66205</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C26">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C28">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C31">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C36">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C41">
+        <v>6571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C42">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C44">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C46">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C48">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C53">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C55">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C62">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C65">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C69">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C70">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C72">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C73">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C74">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C76">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C78">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C81">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66106</v>
+      </c>
+      <c r="C84">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C85">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C86">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C87">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66213</v>
+      </c>
+      <c r="C90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C92">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C93">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C94">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>66852</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>66935</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1">
+        <v>67037</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>67152</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
+        <v>67154</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1">
+        <v>67301</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1">
+        <v>67335</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1">
+        <v>67420</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1">
+        <v>67663</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="1">
+        <v>67737</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="1">
+        <v>67901</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="1">
+        <v>67950</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C135">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C136">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C139">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C143">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C145">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C146">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C150">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="1">
+        <v>66619</v>
+      </c>
+      <c r="C151">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" s="1">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C154">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C155">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C157">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C159">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C161">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C165">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C166">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C167">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="1">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C172">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C173">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C175">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C176">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C177">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C178">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C182">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B183" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C183">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B184" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C184">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B185" s="1">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B187" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B188" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C188">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C189">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B190" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C191">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C192">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C193">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194" s="1">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C195">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C197">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C198">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C199">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C200">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C201">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B202" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C203">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B204" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B205" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B207" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C208">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B209" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B210" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C210">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B211" s="1">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B212" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C213">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B214" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C214">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C215">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B216" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C216">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B217" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C217">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B218" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C218">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C219">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B220" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C220">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B221" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C221">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B222" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C222">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B223" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C223">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B224" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B225" s="1">
+        <v>66935</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C228">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B231" s="1">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B232" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B233" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235" s="1">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B237" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B240" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C240">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C241">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B242" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C242">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B243" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B244" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B245" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C245">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B246" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B247" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C247">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B248" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C248">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B249" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C249">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B250" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C250">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B251" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C251">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B252" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B253" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C253">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B254" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C254">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B255" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C255">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B256" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C256">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B257" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B258" s="1">
+        <v>66857</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B259" s="1">
+        <v>66968</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B260" s="1">
+        <v>67005</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B261" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B262" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B263" s="1">
+        <v>67152</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B264" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B265" s="1">
+        <v>67420</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B266" s="1">
+        <v>67558</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B267" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B269" s="1">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B271" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C271">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B272" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B273" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C273">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B274" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B275" s="1">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B276" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B277" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C277">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B278" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B279" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C279">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B280" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C280">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B281" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C281">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B282" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C282">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B283" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C283">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B284" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C284">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B285" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C285">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B287" s="1">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B288" s="1">
+        <v>64098</v>
+      </c>
+      <c r="C288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B289" s="1">
+        <v>64119</v>
+      </c>
+      <c r="C289">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B290" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B291" s="1">
+        <v>64504</v>
+      </c>
+      <c r="C291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B292" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C292">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B293" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C293">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B294" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B295" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C295">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B296" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C296">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B297" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C297">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B298" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C298">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B299" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C299">
+        <v>8088</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B300" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C300">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B301" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C301">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B302" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C302">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B303" s="1">
+        <v>66103</v>
+      </c>
+      <c r="C303">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B304" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B305" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C305">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B306" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B307" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C307">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B308" s="1">
+        <v>66217</v>
+      </c>
+      <c r="C308">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B309" s="1">
+        <v>66219</v>
+      </c>
+      <c r="C309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B310" s="1">
+        <v>66549</v>
+      </c>
+      <c r="C310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C311">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B312" s="1">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B313" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B314" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C314">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B315" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C315">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B316" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C316">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B317" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B318" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C318">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B319" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C319">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B320" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C320">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B321" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C321">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C322">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C323">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C324">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B325" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B326" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B327" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B328" s="1">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B329" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C329">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B330" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C332">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B333" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C333">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B334" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C334">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B335" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C337">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B338" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C338">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B339" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C339">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B340" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C340">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B341" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C341">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B342" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C342">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B343" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C343">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C344">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B346" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C346">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B347" s="1">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B348" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B349" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C350">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B351" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C351">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B352" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C352">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B354" s="1">
+        <v>66429</v>
+      </c>
+      <c r="C354">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B356" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C357">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C358">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C359">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B360" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C360">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B362" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C362">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B363" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C363">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B364" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C364">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B365" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C365">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B366" s="1">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B367" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B368" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C368">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B369" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C370">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B371" s="1">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B372" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C372">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B373" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B374" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C374">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B375" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C375">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B377" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B378" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C378">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C379">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B380" s="1">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B381" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B382" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C382">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B383" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C383">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B384" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C384">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B385" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B386" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C386">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B387" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C388">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C389">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66830</v>
+      </c>
+      <c r="C391">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B392" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C392">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B393" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C393">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B395" s="1">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B396" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C397">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B398" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C398">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B399" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C399">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B400" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C400">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B401" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C401">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B402" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C402">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C403">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C404">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C405">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C406">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C407">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B408" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B409" s="1">
+        <v>67357</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B410" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B411" s="1">
+        <v>67737</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B412" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C413">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B414" s="1">
+        <v>0</v>
+      </c>
+      <c r="C414">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B415" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B416" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C416">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B417" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C417">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B418" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C418">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B419" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C419">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B420" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C420">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B421" s="1">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B422" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C422">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C423">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B424" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C424">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B425" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C425">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B426" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C426">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B427" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C427">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B428" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C428">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B429" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C429">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B430" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C430">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B432" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C432">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B433" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C433">
+        <v>5718</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B435" s="1">
+        <v>66075</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B436" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C436">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B437" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C437">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B438" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C438">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B439" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C439">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B440" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C440">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B441" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C441">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B442" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C442">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B443" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C443">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B444" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C444">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B445" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B446" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C446">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B447" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C447">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B448" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B449" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C449">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B450" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C450">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B451" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C451">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B452" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B453" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C453">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B454" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C454">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B455" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C455">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B456" s="1">
+        <v>66713</v>
+      </c>
+      <c r="C456">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B457" s="1">
+        <v>66783</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B458" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B459" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C459">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B461" s="1">
+        <v>67026</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B462" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B463" s="1">
+        <v>67045</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B464" s="1">
+        <v>67052</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B465" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B466" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B467" s="1">
+        <v>67110</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B468" s="1">
+        <v>67147</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B469" s="1">
+        <v>67337</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B470" s="1">
+        <v>67432</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B471" s="1">
+        <v>67504</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B472" s="1">
+        <v>67525</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B473" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B474" s="1">
+        <v>67558</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B475" s="1">
+        <v>67572</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B476" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C476">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B477" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C477">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B478" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B479" s="1">
+        <v>67756</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B480" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B481" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C481">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C482">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B483" s="1">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B484" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C484">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C485">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C486">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B487" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C487">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B488" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C488">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B489" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C489">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B490" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C490">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B491" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C491">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B492" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C492">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B493" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B494" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C494">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B495" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C495">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B496" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C496">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B497" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C497">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B498" s="1">
+        <v>0</v>
+      </c>
+      <c r="C498">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B499" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C499">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B500" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B501" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C501">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B502" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B503" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C503">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B504" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B505" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C505">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B506" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C506">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B507" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C507">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B508" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C508">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B509" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C509">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B510" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B511" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C511">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B512" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C512">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B513" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C513">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B514" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C514">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B515" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B516" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B517" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B518" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B519" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B520" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B521" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C521">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B522" s="1">
+        <v>67357</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B523" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B524" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B525" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C525">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B526" s="1">
+        <v>67663</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B527" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C527">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B528" s="1">
+        <v>67756</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C529">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C530">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B531" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C531">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C532">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C533">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B534" s="1">
+        <v>66607</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B535" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B536" s="1">
+        <v>0</v>
+      </c>
+      <c r="C536">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B537" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C537">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B538" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C538">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B539" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C539">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B540" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C540">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B541" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B542" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C542">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B543" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C543">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B544" s="1">
+        <v>0</v>
+      </c>
+      <c r="C544">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B545" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C545">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B546" s="1">
+        <v>0</v>
+      </c>
+      <c r="C546">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B547" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C547">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B548" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C548">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C549">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B550" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C550">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B551" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C551">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B552" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C552">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B553" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C553">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B554" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C554">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B555" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C555">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B556" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C556">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B557" s="1">
+        <v>0</v>
+      </c>
+      <c r="C557">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B558" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B559" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C559">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B560" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C560">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C562">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C563">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B564" s="1">
+        <v>66423</v>
+      </c>
+      <c r="C564">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B565" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C565">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C566">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B567" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C567">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B568" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C568">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B569" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C569">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B570" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C570">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B571" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C571">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B572" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B573" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C573">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C574">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B575" s="1">
+        <v>0</v>
+      </c>
+      <c r="C575">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C576">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C577">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C578">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B579" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C579">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B580" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C580">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B581" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C581">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B582" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C582">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B583" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C583">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B584" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C584">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B585" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B586" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B587" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C587">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B588" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C588">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B589" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B590" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C590">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B591" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B592" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C592">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B593" s="1">
+        <v>67420</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B594" s="1">
+        <v>67749</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B595" s="1">
+        <v>67834</v>
+      </c>
+      <c r="C595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B596" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B597" s="1">
+        <v>68337</v>
+      </c>
+      <c r="C597">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B598" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C598">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B599" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C599">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C600">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B601" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B602" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C602">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B603" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C603">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B604" s="1">
+        <v>66406</v>
+      </c>
+      <c r="C604">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B605" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C605">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B606" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C606">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B607" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C607">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B608" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C608">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B609" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C609">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B610" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C610">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B611" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C611">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B612" s="1">
+        <v>66541</v>
+      </c>
+      <c r="C612">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B613" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C613">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B614" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C614">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B615" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C615">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B616" s="1">
+        <v>68345</v>
+      </c>
+      <c r="C616">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B617" s="1">
+        <v>68420</v>
+      </c>
+      <c r="C617">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C618">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B619" s="1">
+        <v>0</v>
+      </c>
+      <c r="C619">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B620" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C620">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B621" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B622" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B623" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C623">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B624" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B625" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C625">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B626" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C626">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B627" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C627">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B628" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C628">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B629" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C629">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B630" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C630">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B631" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C631">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B632" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C632">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B633" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C633">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B634" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C634">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B635" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C635">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B636" s="1">
+        <v>0</v>
+      </c>
+      <c r="C636">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B637" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C637">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B638" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C638">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B639" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C639">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B640" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C640">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B641" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C641">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B642" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C642">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B643" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B644" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C644">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B645" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C645">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B646" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C646">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B647" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C647">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B648" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C648">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B649" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C649">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B650" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B651" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C651">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B652" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C652">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B653" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C653">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B654" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C654">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B655" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C655">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B656" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C656">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C657">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B658" s="1">
+        <v>0</v>
+      </c>
+      <c r="C658">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B659" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C659">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B660" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C660">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B661" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C661">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B662" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C662">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B663" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C663">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B664" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C664">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B665" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C665">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B666" s="1">
+        <v>0</v>
+      </c>
+      <c r="C666">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B667" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C667">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B668" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C668">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B669" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C669">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B670" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C670">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B671" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C671">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B672" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C672">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B673" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C673">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B674" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C674">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B675" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B676" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B677" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C677">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C678">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B679" s="1">
+        <v>0</v>
+      </c>
+      <c r="C679">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B680" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C680">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B681" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B682" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C682">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B683" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C683">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B684" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B685" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C685">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B686" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C686">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B687" s="1">
+        <v>0</v>
+      </c>
+      <c r="C687">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B688" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B689" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C689">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B690" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C690">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B691" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C691">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B692" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C692">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B693" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C693">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B694" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B695" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B696" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C696">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B697" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B698" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C698">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B699" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C699">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B700" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C700">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B701" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B702" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C702">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B703" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C703">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B704" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B705" s="1">
+        <v>67045</v>
+      </c>
+      <c r="C705">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B706" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B707" s="1">
+        <v>67154</v>
+      </c>
+      <c r="C707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B708" s="1">
+        <v>67432</v>
+      </c>
+      <c r="C708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B709" s="1">
+        <v>67554</v>
+      </c>
+      <c r="C709">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B710" s="1">
+        <v>67558</v>
+      </c>
+      <c r="C710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B711" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C711">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B712" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C712">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B713" s="1">
+        <v>67901</v>
+      </c>
+      <c r="C713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C714">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B715" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C715">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B716" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C716">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B717" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C717">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B718" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C718">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B719" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C719">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B720" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C720">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B721" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C721">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B722" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C722">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B723" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C723">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B724" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B725" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B726" s="1">
+        <v>67037</v>
+      </c>
+      <c r="C726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B727" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C727">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
+++ b/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01FFFB6-C924-426D-816F-3DA5B6D0CB39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6164545B-0D5B-4F32-B69A-9F0D5AB2EFD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" firstSheet="1" activeTab="1" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3647" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4416" uniqueCount="57">
   <si>
     <t>Library</t>
   </si>
@@ -8654,13 +8654,13 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7559C5-98A6-49B7-ABC7-2F44371F9A3D}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C745"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8681,11 +8681,8183 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C4">
+        <v>6879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C16">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66205</v>
+      </c>
+      <c r="C23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C31">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C33">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C36">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C41">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C47">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C49">
+        <v>7720</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C50">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C53">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C54">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C55">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C57">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C59">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C61">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C62">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C64">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C66">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C75">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C76">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C79">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C80">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C81">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C85">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C87">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C90">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C92">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C94">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66106</v>
+      </c>
+      <c r="C97">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C98">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C99">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C100">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C101">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C102">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66213</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C104">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C105">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C106">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>66220</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C108">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C109">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1">
+        <v>66701</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
+        <v>66713</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>66720</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
+        <v>66748</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1">
+        <v>66762</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1">
+        <v>66857</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1">
+        <v>66861</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1">
+        <v>66945</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1">
+        <v>67010</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1">
+        <v>67063</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="1">
+        <v>67104</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="1">
+        <v>67301</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="1">
+        <v>67357</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="1">
+        <v>67420</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="1">
+        <v>67432</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="1">
+        <v>67749</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="1">
+        <v>67756</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="1">
+        <v>67861</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="1">
+        <v>67864</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="1">
+        <v>67950</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="1">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C151">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C152">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C155">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C159">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C161">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C163">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C164">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C166">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" s="1">
+        <v>66619</v>
+      </c>
+      <c r="C169">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" s="1">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C172">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C173">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C175">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="1">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C178">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C179">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C181">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C182">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C183">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C184">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186" s="1">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B188" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C188">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C189">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C191">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C192">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C197">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C198">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C200">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C202">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C203">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C204">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B207" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B208" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C208">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B209" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B210" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C210">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B211" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C211">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B212" s="1">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C213">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C214">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B215" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C215">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B216" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C216">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B217" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B218" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C218">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B219" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C219">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B220" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B221" s="1">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B222" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C222">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B223" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C223">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B224" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B225" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C225">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B226" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C226">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B227" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C227">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B228" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C228">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B229" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B230" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C230">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B231" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B232" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B233" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C233">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C234">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C236">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B237" s="1">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C239">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B240" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C240">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B242" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C242">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B243" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C243">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B244" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B245" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C245">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B246" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C246">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B247" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C247">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B248" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C248">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B249" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C249">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B250" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C250">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B251" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C251">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B252" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C252">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B253" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C253">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B254" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C254">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B255" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B256" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B257" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B258" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B259" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B260" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B261" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B262" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B263" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B264" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B265" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C265">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B266" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B268" s="1">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B269" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B271" s="1">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B272" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B273" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B274" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C274">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B276" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B277" s="1">
+        <v>66075</v>
+      </c>
+      <c r="C277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B278" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B279" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B280" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C280">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B281" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C281">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B282" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C282">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B283" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B284" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C284">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B285" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C285">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B286" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C286">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B287" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B288" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C288">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B289" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C289">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B290" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C290">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B291" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C291">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B292" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C292">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B293" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B294" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C294">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B295" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C295">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B296" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C296">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B297" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B298" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B299" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B300" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B301" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B302" s="1">
+        <v>66949</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B303" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B304" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B305" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B306" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B307" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B308" s="1">
+        <v>67855</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C309">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B310" s="1">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B311" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B312" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B313" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C313">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B314" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B315" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C315">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B316" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B317" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C317">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B318" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C318">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B319" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C319">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B320" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C320">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B321" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C321">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C322">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C323">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C324">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B325" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C325">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B328" s="1">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B329" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B330" s="1">
+        <v>64504</v>
+      </c>
+      <c r="C330">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C331">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C332">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B333" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C333">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B334" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C334">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B335" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C335">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C336">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C337">
+        <v>8748</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B338" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C338">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B339" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B340" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C340">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B341" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C341">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B342" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C342">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B343" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C344">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66217</v>
+      </c>
+      <c r="C345">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B346" s="1">
+        <v>66549</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B348" s="1">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B349" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C349">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C350">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B351" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C351">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B352" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C352">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C353">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B354" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C354">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C355">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B356" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C356">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C357">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C358">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B360" s="1">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B362" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C362">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B363" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B364" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C364">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B365" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C365">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B366" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C366">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B367" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C367">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B368" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B369" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C369">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C370">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B371" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B372" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C372">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B373" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C373">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B374" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C375">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C376">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B377" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C377">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B378" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B380" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C380">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B381" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C381">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B382" s="1">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B383" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C383">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B384" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B385" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C385">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B386" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C386">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B387" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C387">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C388">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66429</v>
+      </c>
+      <c r="C389">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C390">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C391">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B392" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C392">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B393" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C393">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B394" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C394">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B395" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C395">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B396" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C396">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C397">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B398" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B399" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C399">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B400" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C400">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C401">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B402" s="1">
+        <v>0</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C404">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C405">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C406">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B407" s="1">
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B408" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C408">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B409" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B410" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C410">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B411" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C411">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B412" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B413" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C413">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B414" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C414">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B415" s="1">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B416" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C416">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B417" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C417">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B418" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C418">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B419" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B420" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C420">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B421" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C421">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B422" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C422">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66610</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B424" s="1">
+        <v>66830</v>
+      </c>
+      <c r="C424">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B425" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C425">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B426" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C426">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B427" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C427">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B429" s="1">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B430" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C431">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B432" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C432">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B433" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C434">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B435" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C435">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B436" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B437" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C437">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B438" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C438">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B439" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C439">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B440" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C440">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B441" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C441">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B442" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B443" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C443">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B444" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B445" s="1">
+        <v>67052</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B446" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C447">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B448" s="1">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B449" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B450" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C450">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B451" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C451">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B452" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C452">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B453" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C453">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B454" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C454">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B455" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C455">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B456" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C456">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C457">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B458" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C458">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B459" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C459">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C460">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B461" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C461">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B462" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C462">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B463" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C463">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B464" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C464">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B465" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C465">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B466" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C466">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B467" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C467">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B468" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C468">
+        <v>7869</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B469" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B470" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C470">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B471" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C471">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B472" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C472">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B473" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C473">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B474" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C474">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B475" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C475">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B476" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C476">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B477" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C477">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B478" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B479" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C479">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B480" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C480">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B481" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B482" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C482">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B483" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B484" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C484">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C485">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B487" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C487">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B488" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C488">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B489" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B490" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C490">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B491" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C491">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B492" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C492">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B493" s="1">
+        <v>66935</v>
+      </c>
+      <c r="C493">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B494" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B495" s="1">
+        <v>67026</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B496" s="1">
+        <v>67037</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B497" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B498" s="1">
+        <v>67045</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B499" s="1">
+        <v>67063</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B500" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B501" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C501">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B502" s="1">
+        <v>67672</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B503" s="1">
+        <v>67801</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B504" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B505" s="1">
+        <v>67861</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C506">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B507" s="1">
+        <v>0</v>
+      </c>
+      <c r="C507">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B508" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C508">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B509" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C509">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B510" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C510">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B511" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B512" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C512">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B513" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C513">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B514" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C514">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B515" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C515">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B516" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B517" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C517">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B518" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C518">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B519" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C519">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B520" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C520">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B521" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C521">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B522" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C522">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B523" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C523">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B524" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C524">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B526" s="1">
+        <v>0</v>
+      </c>
+      <c r="C526">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B527" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C527">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C528">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B529" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C529">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C530">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B531" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C531">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C532">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C533">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B534" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C534">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B535" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C535">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B536" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C536">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B537" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C537">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B538" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C538">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B539" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C539">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B540" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C540">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B541" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C541">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B542" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C542">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B543" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C543">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B544" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B545" s="1">
+        <v>66204</v>
+      </c>
+      <c r="C545">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B546" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C546">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B547" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C547">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B548" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B549" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B550" s="1">
+        <v>67063</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B551" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B552" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C552">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B553" s="1">
+        <v>67152</v>
+      </c>
+      <c r="C553">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B554" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C554">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B555" s="1">
+        <v>67460</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B556" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C556">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B557" s="1">
+        <v>67752</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C558">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B559" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C559">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B560" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C560">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C561">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C562">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C563">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B564" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C564">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B565" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C565">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B567" s="1">
+        <v>66429</v>
+      </c>
+      <c r="C567">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B568" s="1">
+        <v>66607</v>
+      </c>
+      <c r="C568">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B569" s="1">
+        <v>0</v>
+      </c>
+      <c r="C569">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B570" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B571" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C571">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B572" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C572">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B573" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B574" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C574">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C575">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C577">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C578">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B579" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C579">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B580" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C580">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B581" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C581">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B582" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C582">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B583" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B584" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C584">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B585" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C585">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B586" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C586">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B587" s="1">
+        <v>66423</v>
+      </c>
+      <c r="C587">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B588" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C588">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B589" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C589">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B590" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C590">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B591" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C591">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B592" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C592">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B593" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C593">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B594" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C594">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B595" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C595">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B596" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C596">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B597" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C597">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B598" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C598">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B600" s="1">
+        <v>0</v>
+      </c>
+      <c r="C600">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B601" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C601">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B602" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C602">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B603" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C603">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B604" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B605" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C605">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B606" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C606">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B607" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C607">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B608" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C608">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B609" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C609">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B610" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C610">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B611" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C611">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B612" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C612">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B613" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C613">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B614" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C614">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B615" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B616" s="1">
+        <v>67010</v>
+      </c>
+      <c r="C616">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B617" s="1">
+        <v>67104</v>
+      </c>
+      <c r="C617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B618" s="1">
+        <v>67449</v>
+      </c>
+      <c r="C618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B619" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C619">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B620" s="1">
+        <v>68337</v>
+      </c>
+      <c r="C620">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B621" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C621">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C622">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B623" s="1">
+        <v>0</v>
+      </c>
+      <c r="C623">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B624" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B625" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C625">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B626" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C626">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B627" s="1">
+        <v>66406</v>
+      </c>
+      <c r="C627">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B628" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C628">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B629" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C629">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B630" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C630">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B631" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B632" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C632">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B633" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C633">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B634" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C634">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B635" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C635">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B636" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B637" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C637">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B638" s="1">
+        <v>68345</v>
+      </c>
+      <c r="C638">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B639" s="1">
+        <v>68420</v>
+      </c>
+      <c r="C639">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C640">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B641" s="1">
+        <v>0</v>
+      </c>
+      <c r="C641">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B642" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C642">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B643" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B644" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B645" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C645">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B646" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B647" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B648" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C648">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B649" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C649">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B650" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C650">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B651" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C651">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B652" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C652">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B653" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C653">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B654" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C654">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B655" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C655">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B656" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C656">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B657" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C657">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C658">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B659" s="1">
+        <v>0</v>
+      </c>
+      <c r="C659">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B660" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C660">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B661" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C661">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B662" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C662">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B663" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C663">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B664" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C664">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B665" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C665">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B666" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B667" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C667">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B668" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C668">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B669" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C669">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B670" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C670">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B671" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C671">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B672" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C672">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B673" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C673">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B674" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B675" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C675">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B676" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C676">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B677" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C677">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B678" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C678">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B679" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C679">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B680" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C680">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B682" s="1">
+        <v>0</v>
+      </c>
+      <c r="C682">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B683" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B684" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C684">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B685" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C685">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B686" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C686">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B687" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C687">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B688" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C688">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B689" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C689">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B690" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C690">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B691" s="1">
+        <v>0</v>
+      </c>
+      <c r="C691">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B692" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C692">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B693" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C693">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B694" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C694">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B695" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B696" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B697" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C697">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B698" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C698">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B699" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C699">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B700" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C700">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B701" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B702" s="1">
+        <v>0</v>
+      </c>
+      <c r="C702">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B703" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C703">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B704" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C704">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B705" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C705">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B706" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C706">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B707" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C707">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B708" s="1">
+        <v>0</v>
+      </c>
+      <c r="C708">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B709" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C709">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B710" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C710">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B711" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C711">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B712" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C712">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B713" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C713">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B714" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C714">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B715" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C715">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B716" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C716">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B717" s="1">
+        <v>66736</v>
+      </c>
+      <c r="C717">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B718" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C718">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B719" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C719">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B720" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C720">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B721" s="1">
+        <v>66935</v>
+      </c>
+      <c r="C721">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B722" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C722">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B723" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C723">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B724" s="1">
+        <v>67420</v>
+      </c>
+      <c r="C724">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B725" s="1">
+        <v>67439</v>
+      </c>
+      <c r="C725">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B726" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C726">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B727" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C727">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B728" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C728">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B730" s="1">
+        <v>0</v>
+      </c>
+      <c r="C730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B731" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C731">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B732" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B733" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C733">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B734" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C734">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B735" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C735">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B736" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C736">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B737" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C737">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B738" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C738">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B739" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C739">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B740" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C740">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A741" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B741" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B742" s="1">
+        <v>67010</v>
+      </c>
+      <c r="C742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B743" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A744" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B744" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A745" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C745">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{1467ACD2-5154-4AA5-8BD5-EC36ACA4BB63}"/>
-  <sortState ref="A2:C712">
-    <sortCondition ref="A2:A712"/>
-    <sortCondition ref="B2:B712"/>
+  <sortState ref="A2:C745">
+    <sortCondition ref="A2:A745"/>
+    <sortCondition ref="B2:B745"/>
   </sortState>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates zip codes that have been anonymized." sqref="B1" xr:uid="{C802CE93-E6EF-46B4-9763-C3800FBF168B}"/>

--- a/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
+++ b/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6164545B-0D5B-4F32-B69A-9F0D5AB2EFD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBB9302-2F31-4FC2-921A-3237326F0A55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" firstSheet="1" activeTab="1" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4416" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="57">
   <si>
     <t>Library</t>
   </si>
@@ -16882,7 +16882,7 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1B21F-6FFE-4052-B555-7EB4F04AC5E9}">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C739"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -16909,8 +16909,8124 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C5">
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66205</v>
+      </c>
+      <c r="C22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C29">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C31">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C32">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C37">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C39">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C41">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C43">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C45">
+        <v>7553</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C46">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C50">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C52">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C54">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C55">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C60">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C61">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C62">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C65">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C66">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C72">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="1">
+        <v>68337</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C77">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C78">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C79">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C80">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C84">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C87">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C89">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C90">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C91">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66075</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C93">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66106</v>
+      </c>
+      <c r="C96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C97">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C98">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66213</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C105">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C106">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>66220</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C108">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1">
+        <v>66701</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
+        <v>66736</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>66748</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1">
+        <v>66762</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1">
+        <v>66852</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1">
+        <v>66861</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1">
+        <v>66968</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1">
+        <v>67005</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="1">
+        <v>67154</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="1">
+        <v>67449</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="1">
+        <v>67522</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="1">
+        <v>67663</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="1">
+        <v>67880</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="1">
+        <v>67901</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="1">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C148">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C149">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C152">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C153">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C154">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C155">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C156">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C158">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="1">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C163">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C165">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C166">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C167">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C168">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="1">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C172">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C173">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C174">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C175">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B176" s="1">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C178">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C179">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C180">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" s="1">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C185">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C186">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C187">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C188">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B189" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C189">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B190" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C190">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C192">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B194" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C194">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B195" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B196" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B197" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C197">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B198" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C198">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B199" s="1">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C201">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C202">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C203">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B204" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C204">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B205" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B208" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B209" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C209">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B210" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B211" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C211">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B212" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C212">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C213">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B214" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C214">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B215" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C215">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B216" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C216">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B217" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B218" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B219" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B220" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B221" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C221">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B222" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C223">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B225" s="1">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C226">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C227">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B230" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C230">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B231" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C231">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B233" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C233">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C235">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B237" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C237">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C238">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C239">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B240" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C240">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C241">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B242" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C242">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B243" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C243">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B244" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C244">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B245" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B246" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B247" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B248" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B249" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B250" s="1">
+        <v>67860</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B251" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C251">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B252" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B254" s="1">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B255" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B256" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C256">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B257" s="1">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B258" s="1">
+        <v>66056</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B259" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C259">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B260" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B261" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B262" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C262">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B263" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C263">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B264" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C264">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B265" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C265">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B266" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C266">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B267" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C267">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B268" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C268">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B269" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C269">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B271" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C271">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B272" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C272">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B273" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C273">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B274" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C274">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B276" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C276">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B277" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B278" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C278">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B279" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C279">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B280" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B281" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C281">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B282" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B283" s="1">
+        <v>67010</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B284" s="1">
+        <v>67026</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B285" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B286" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B287" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B288" s="1">
+        <v>67154</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B289" s="1">
+        <v>67219</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B290" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B291" s="1">
+        <v>67432</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B292" s="1">
+        <v>67449</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B293" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B294" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B295" s="1">
+        <v>67752</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B296" s="1">
+        <v>67951</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B298" s="1">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B299" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C299">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B300" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C300">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B301" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B302" s="1">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B303" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C303">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B304" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C304">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B305" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C305">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B306" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C306">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B307" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C307">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B308" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C308">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B309" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C309">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B310" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C310">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B311" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B312" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C312">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B313" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C313">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B314" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C314">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B316" s="1">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B317" s="1">
+        <v>64079</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B318" s="1">
+        <v>64098</v>
+      </c>
+      <c r="C318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B319" s="1">
+        <v>64119</v>
+      </c>
+      <c r="C319">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B320" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B321" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C321">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C322">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C323">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C324">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B325" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C325">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B326" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C326">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B327" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C327">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B328" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C328">
+        <v>9097</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B329" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C329">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B330" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C330">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C331">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C332">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B333" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C333">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B334" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C334">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B335" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C335">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C336">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66217</v>
+      </c>
+      <c r="C337">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B338" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B339" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B341" s="1">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B342" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C342">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B343" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C343">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C344">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C345">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B346" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C346">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B347" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C347">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B348" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C348">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B349" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C349">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C350">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B351" s="1">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B352" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C353">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B354" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C355">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B356" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C356">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C357">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C358">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C359">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B360" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C360">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C361">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B362" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B363" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C363">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B364" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C364">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B365" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B367" s="1">
+        <v>64151</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B368" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C368">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B369" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C369">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C370">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B371" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B372" s="1">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B373" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B374" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C374">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B375" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C375">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C376">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B377" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C377">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B378" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C378">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C379">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B380" s="1">
+        <v>66429</v>
+      </c>
+      <c r="C380">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B381" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B382" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C382">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B383" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C383">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B384" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C384">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B385" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C385">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B386" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C386">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B387" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C388">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C389">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C390">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C391">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B392" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C392">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C393">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B394" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B395" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C395">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B396" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C396">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C397">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B398" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B399" s="1">
+        <v>83402</v>
+      </c>
+      <c r="C399">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B400" s="1">
+        <v>0</v>
+      </c>
+      <c r="C400">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B401" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B402" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C402">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C404">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C406">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B408" s="1">
+        <v>0</v>
+      </c>
+      <c r="C408">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B409" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C409">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B410" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C410">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B411" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C411">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B412" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C412">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B413" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C413">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B414" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C414">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B415" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C415">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B416" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B417" s="1">
+        <v>66830</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B418" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B419" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C419">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B420" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C420">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C421">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B422" s="1">
+        <v>0</v>
+      </c>
+      <c r="C422">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C423">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B424" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C424">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B425" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C425">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B426" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C426">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B427" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C427">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B428" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C428">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B429" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C429">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B430" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C430">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C431">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B432" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C432">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B433" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C434">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B435" s="1">
+        <v>67357</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B436" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B437" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B438" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C439">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B440" s="1">
+        <v>0</v>
+      </c>
+      <c r="C440">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B441" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C441">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B442" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B443" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C443">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B444" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C444">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B445" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C445">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B446" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C446">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B447" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B448" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B449" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C449">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B450" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B451" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C451">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C452">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B453" s="1">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B454" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C454">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B455" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C455">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B456" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C456">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B457" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C457">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B458" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C458">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B459" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C459">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C460">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B461" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C461">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B462" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B463" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C463">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B464" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C464">
+        <v>7124</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B465" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B466" s="1">
+        <v>66075</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B467" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C467">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B468" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C468">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B469" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C469">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B470" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C470">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B471" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C471">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B472" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C472">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B473" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C473">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B474" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B475" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C475">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B476" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B477" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B478" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C478">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B479" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C479">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B480" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C480">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B481" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C481">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B482" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C482">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B483" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B484" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C484">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C485">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B487" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C487">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B488" s="1">
+        <v>66701</v>
+      </c>
+      <c r="C488">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B489" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B490" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B491" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C491">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B492" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B493" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B494" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C494">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B495" s="1">
+        <v>66935</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B496" s="1">
+        <v>67037</v>
+      </c>
+      <c r="C496">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B497" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B498" s="1">
+        <v>67063</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B499" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C499">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B500" s="1">
+        <v>67147</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B501" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B502" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B503" s="1">
+        <v>67432</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B504" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B505" s="1">
+        <v>67504</v>
+      </c>
+      <c r="C505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B506" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B507" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B508" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B509" s="1">
+        <v>67672</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B510" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B511" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B512" s="1">
+        <v>67748</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B513" s="1">
+        <v>67752</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B514" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C514">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B515" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B516" s="1">
+        <v>67901</v>
+      </c>
+      <c r="C516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C517">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B518" s="1">
+        <v>0</v>
+      </c>
+      <c r="C518">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B519" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C519">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B520" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B521" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C521">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B522" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C522">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B523" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C523">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B524" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C524">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B525" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C525">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B526" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C526">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B527" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C527">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C528">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B529" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C529">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C530">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B531" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C531">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C532">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C533">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B534" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C534">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B535" s="1">
+        <v>0</v>
+      </c>
+      <c r="C535">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B536" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C536">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B537" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C537">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B538" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C538">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B539" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C539">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B540" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B541" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B542" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C542">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B543" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C543">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B544" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C544">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B545" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C545">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B546" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C546">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B547" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C547">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B548" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C548">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B549" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C549">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B550" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C550">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B551" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C551">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B552" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C552">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B553" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C553">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B554" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B555" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C555">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B556" s="1">
+        <v>66713</v>
+      </c>
+      <c r="C556">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B557" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B558" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C558">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B559" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C560">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C561">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C562">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C563">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B564" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C564">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B565" s="1">
+        <v>0</v>
+      </c>
+      <c r="C565">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B567" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C567">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B568" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C568">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B569" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C569">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B570" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C570">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B571" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C571">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B572" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C572">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B573" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C573">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B574" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C574">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C575">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C576">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C577">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B579" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C579">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B580" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C580">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B581" s="1">
+        <v>66423</v>
+      </c>
+      <c r="C581">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B582" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C582">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B583" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C583">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B584" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C584">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B585" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C585">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B586" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C586">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B587" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C587">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B588" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C588">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B589" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C589">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B590" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C590">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B591" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C591">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B592" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C592">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B593" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C593">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B594" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C594">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B595" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C595">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B596" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C596">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B597" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C597">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B598" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C598">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B599" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C599">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B600" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B601" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C601">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B602" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C602">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B603" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B604" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C604">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B605" s="1">
+        <v>66945</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B606" s="1">
+        <v>66968</v>
+      </c>
+      <c r="C606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B607" s="1">
+        <v>67124</v>
+      </c>
+      <c r="C607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B608" s="1">
+        <v>67420</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B609" s="1">
+        <v>67449</v>
+      </c>
+      <c r="C609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B610" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C610">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B611" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B612" s="1">
+        <v>67951</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B613" s="1">
+        <v>68337</v>
+      </c>
+      <c r="C613">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B614" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C614">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B615" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C615">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C616">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B617" s="1">
+        <v>0</v>
+      </c>
+      <c r="C617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B618" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B619" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B620" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C620">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B621" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C621">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B622" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C622">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B623" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C623">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B624" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C624">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B625" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C625">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B626" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B627" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C627">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B628" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C628">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B629" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C629">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B630" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C630">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B631" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C631">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B632" s="1">
+        <v>66541</v>
+      </c>
+      <c r="C632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B633" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C633">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B634" s="1">
+        <v>68345</v>
+      </c>
+      <c r="C634">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B635" s="1">
+        <v>68420</v>
+      </c>
+      <c r="C635">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C636">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B637" s="1">
+        <v>0</v>
+      </c>
+      <c r="C637">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B638" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B639" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C639">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B640" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C640">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B641" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C641">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B642" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B643" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C643">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B644" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C644">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B645" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C645">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B646" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C646">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B647" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C647">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B648" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C648">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B649" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C649">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B650" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C650">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B651" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C651">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B652" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C652">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B653" s="1">
+        <v>0</v>
+      </c>
+      <c r="C653">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B654" s="1">
+        <v>64114</v>
+      </c>
+      <c r="C654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B655" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C655">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B656" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C656">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B657" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C657">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B658" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C658">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B659" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C659">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B660" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B661" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C661">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B662" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C662">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B663" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C663">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B664" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C664">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B665" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C665">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B666" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C666">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B667" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C667">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B668" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C668">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B669" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C669">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B670" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B671" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C671">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B672" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C672">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B673" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C673">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B674" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C674">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B675" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C675">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B676" s="1">
+        <v>0</v>
+      </c>
+      <c r="C676">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B677" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C677">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B678" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C678">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B679" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C679">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B680" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C680">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B681" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B682" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C682">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B683" s="1">
+        <v>0</v>
+      </c>
+      <c r="C683">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B684" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C684">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B685" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C685">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B686" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C686">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B687" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C687">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B688" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C688">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B689" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C689">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B690" s="1">
+        <v>0</v>
+      </c>
+      <c r="C690">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B691" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C691">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B692" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C692">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B693" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C693">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B694" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C694">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B695" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C695">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B696" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C696">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B697" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C697">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B698" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C698">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B699" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C699">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B700" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C700">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B701" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C701">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B702" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C702">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B703" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C703">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B704" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C704">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B705" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C705">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B706" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B707" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C707">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B708" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C708">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B709" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C709">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B710" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C710">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B711" s="1">
+        <v>67045</v>
+      </c>
+      <c r="C711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B712" s="1">
+        <v>67110</v>
+      </c>
+      <c r="C712">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B713" s="1">
+        <v>67420</v>
+      </c>
+      <c r="C713">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B714" s="1">
+        <v>67460</v>
+      </c>
+      <c r="C714">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B715" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C715">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B716" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C716">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B717" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C717">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B718" s="1">
+        <v>67748</v>
+      </c>
+      <c r="C718">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B719" s="1">
+        <v>67831</v>
+      </c>
+      <c r="C719">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B720" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B721" s="1">
+        <v>67901</v>
+      </c>
+      <c r="C721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C722">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B723" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C723">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B724" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B725" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B726" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C726">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B727" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C727">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B728" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C728">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B729" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C729">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B730" s="1">
+        <v>66075</v>
+      </c>
+      <c r="C730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B731" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C731">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B732" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C732">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B733" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B734" s="1">
+        <v>67037</v>
+      </c>
+      <c r="C734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B735" s="1">
+        <v>67219</v>
+      </c>
+      <c r="C735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B736" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B737" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B738" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C739">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{56A1A629-CA91-47DF-B266-9A81672C9993}"/>
+  <sortState ref="A2:C739">
+    <sortCondition ref="A2:A739"/>
+    <sortCondition ref="B2:B739"/>
+  </sortState>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates zip codes that have been anonymized." sqref="B1" xr:uid="{E72413A1-6D99-4165-A4A6-1A894F2AA13F}"/>
   </dataValidations>

--- a/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
+++ b/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBB9302-2F31-4FC2-921A-3237326F0A55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AE7F30-77B1-4A6E-99DD-CE52917C6DDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" firstSheet="1" activeTab="1" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5942" uniqueCount="57">
   <si>
     <t>Library</t>
   </si>
@@ -25050,7 +25050,7 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D8D1A-9F6E-4A67-B4B4-577BAEA41071}">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C750"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -25075,6 +25075,8236 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>64079</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C6">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66205</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C30">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C32">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C34">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C36">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C39">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C40">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C41">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C43">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C47">
+        <v>7411</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C48">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C51">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C52">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C53">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C54">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C56">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C57">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C60">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C62">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C63">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C69">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C70">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C72">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C73">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C74">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C78">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C79">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C81">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C82">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C86">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C87">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66106</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C89">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C90">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C92">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66213</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C96">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C97">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C98">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C99">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66401</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>66720</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1">
+        <v>67026</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
+        <v>67045</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1">
+        <v>67154</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1">
+        <v>67449</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1">
+        <v>67558</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C126">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1">
+        <v>67663</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="1">
+        <v>67736</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="1">
+        <v>67749</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="1">
+        <v>67756</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="1">
+        <v>67860</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="1">
+        <v>67951</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C139">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C140">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C146">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C148">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C150">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C152">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C155">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" s="1">
+        <v>66619</v>
+      </c>
+      <c r="C156">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="1">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C159">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C162">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C164">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C165">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="1">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="1">
+        <v>64505</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C169">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C170">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C171">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C172">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" s="1">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C174">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C175">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B176" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C177">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C178">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C182">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C183">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C185">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C186">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C187">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B189" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C189">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C190">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B191" s="1">
+        <v>64503</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C192">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B194" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B195" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B196" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C196">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B197" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C197">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198" s="1">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B199" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C199">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C200">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C201">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C203">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B204" s="1">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B205" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B206" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C206">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B207" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C207">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B208" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C208">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B209" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C209">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B210" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C210">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B211" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B212" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C212">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C213">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B214" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B215" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B216" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C216">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B217" s="1">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B218" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B219" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C219">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B220" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B221" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C221">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B222" s="1">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B223" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B225" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C225">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C226">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C228">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C229">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B230" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C230">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B231" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C232">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B233" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C233">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C236">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B237" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C237">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C238">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C239">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B240" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C240">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C241">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B242" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B243" s="1">
+        <v>66935</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B244" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B245" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B246" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B247" s="1">
+        <v>67839</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B248" s="1">
+        <v>67860</v>
+      </c>
+      <c r="C248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B249" s="1">
+        <v>67880</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B250" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C250">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B251" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C251">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B252" s="1">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B253" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C253">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B254" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B255" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B256" s="1">
+        <v>66221</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B257" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B259" s="1">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B260" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B261" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C261">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B262" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B263" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B264" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B265" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C265">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B266" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C266">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B267" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C267">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B268" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C268">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B269" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C269">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C270">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B271" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C271">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B272" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C272">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B273" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C273">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B274" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C274">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C275">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B276" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C276">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B277" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B278" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B279" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C279">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B280" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C280">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B281" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B282" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C282">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B283" s="1">
+        <v>67152</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B284" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B285" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B286" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B287" s="1">
+        <v>67663</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B288" s="1">
+        <v>67752</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B289" s="1">
+        <v>67801</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B292" s="1">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B293" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B294" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B295" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C295">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B296" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B297" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B298" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B299" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B300" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B301" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B302" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B304" s="1">
+        <v>67337</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B305" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B306" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B307" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B308" s="1">
+        <v>67865</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B309" s="1">
+        <v>67879</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B310" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C310">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B311" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C311">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B312" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C312">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B313" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C313">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B314" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C314">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B315" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B316" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C316">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B317" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B318" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C318">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B319" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C319">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B320" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B322" s="1">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B324" s="1">
+        <v>64079</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B325" s="1">
+        <v>64098</v>
+      </c>
+      <c r="C325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B326" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B327" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C327">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B328" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C328">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B329" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C329">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B330" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C330">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C331">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B333" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C333">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B334" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C334">
+        <v>8893</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B335" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C335">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C337">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B338" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B339" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C339">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B340" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C340">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B341" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C341">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B342" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B343" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C343">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66442</v>
+      </c>
+      <c r="C345">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B346" s="1">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B347" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B348" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C348">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B349" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C349">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C350">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B351" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C351">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B352" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C353">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B354" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C354">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C355">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B356" s="1">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C357">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C358">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C359">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B360" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C360">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B362" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B363" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C363">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B364" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C364">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B365" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B366" s="1">
+        <v>66619</v>
+      </c>
+      <c r="C366">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B367" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B368" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C368">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B369" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C369">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C370">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B371" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B372" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B373" s="1">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B374" s="1">
+        <v>64133</v>
+      </c>
+      <c r="C374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B375" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B377" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C377">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B378" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C378">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C379">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B380" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B381" s="1">
+        <v>66429</v>
+      </c>
+      <c r="C381">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B382" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B383" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C383">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B384" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C384">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B385" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C385">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B386" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C386">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B387" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C389">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C390">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C391">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B392" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C392">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B393" s="1">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B394" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B395" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C395">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B396" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C396">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C397">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B398" s="1">
+        <v>0</v>
+      </c>
+      <c r="C398">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B399" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C399">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B400" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B401" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C401">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B402" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C402">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C403">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C405">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C406">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C407">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B408" s="1">
+        <v>0</v>
+      </c>
+      <c r="C408">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C409">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B410" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B411" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B412" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C412">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B413" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C413">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B414" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C414">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B415" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B416" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C416">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B417" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C417">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B418" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C418">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B419" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C419">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B420" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B421" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C421">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B422" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C423">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B424" s="1">
+        <v>0</v>
+      </c>
+      <c r="C424">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C425">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B426" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C426">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B427" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C427">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B428" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C428">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B429" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C429">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B430" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C430">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C431">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B432" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C432">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B433" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C433">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C434">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B435" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C435">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B436" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C436">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B437" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B438" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B439" s="1">
+        <v>67439</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B440" s="1">
+        <v>67467</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B441" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B442" s="1">
+        <v>67645</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C443">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B444" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C444">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B445" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B446" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B447" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C447">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B448" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C448">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B449" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C449">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B450" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C450">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B451" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C451">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B452" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C452">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B453" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B454" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C454">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B455" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C455">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B456" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C456">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B457" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C457">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B458" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C458">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B459" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C459">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C460">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B461" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C461">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B462" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C462">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B463" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C463">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B464" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C464">
+        <v>6826</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B465" s="1">
+        <v>66075</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B466" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C466">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B467" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C467">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B468" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C468">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B469" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C469">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B470" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C470">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B471" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C471">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B472" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B473" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C473">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B474" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C474">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B475" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C475">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B476" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C476">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B477" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C477">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B478" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C478">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B479" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B480" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C480">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B481" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C481">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B482" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C482">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B483" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C483">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B484" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C484">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66713</v>
+      </c>
+      <c r="C485">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B487" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B488" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B489" s="1">
+        <v>66935</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B490" s="1">
+        <v>66945</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B491" s="1">
+        <v>67005</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B492" s="1">
+        <v>67037</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B493" s="1">
+        <v>67063</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B494" s="1">
+        <v>67104</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B495" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B496" s="1">
+        <v>67110</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B497" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C497">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B498" s="1">
+        <v>67124</v>
+      </c>
+      <c r="C498">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B499" s="1">
+        <v>67144</v>
+      </c>
+      <c r="C499">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B500" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B501" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B502" s="1">
+        <v>67439</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B503" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B504" s="1">
+        <v>67490</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C505">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B506" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B507" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B508" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B509" s="1">
+        <v>0</v>
+      </c>
+      <c r="C509">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B510" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B511" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C511">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B512" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B513" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C513">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B514" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C514">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B515" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C515">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B516" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C516">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B517" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C517">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B518" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C518">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B519" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C519">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B520" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C520">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B521" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C521">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B522" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C522">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B523" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C523">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B524" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C524">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B525" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C525">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B526" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C526">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B527" s="1">
+        <v>0</v>
+      </c>
+      <c r="C527">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C528">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B529" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C529">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C530">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B531" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C531">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C532">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C533">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B534" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C534">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B535" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C535">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B536" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C536">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B537" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C537">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B538" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C538">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B539" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C539">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B540" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C540">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B541" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C541">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B542" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C542">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B543" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C543">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B544" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C544">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B545" s="1">
+        <v>66720</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B546" s="1">
+        <v>66725</v>
+      </c>
+      <c r="C546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B547" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B548" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B549" s="1">
+        <v>67301</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B550" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B551" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B552" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C552">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C553">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B554" s="1">
+        <v>67752</v>
+      </c>
+      <c r="C554">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B555" s="1">
+        <v>67831</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B556" s="1">
+        <v>67834</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B557" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C557">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B558" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B559" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C559">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B560" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C560">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C561">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C562">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C563">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B564" s="1">
+        <v>0</v>
+      </c>
+      <c r="C564">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B565" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C565">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C566">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B567" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B568" s="1">
+        <v>0</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B569" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C569">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B570" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C570">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B571" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C571">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B572" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B573" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C573">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B574" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C574">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C575">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C576">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C578">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B579" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C579">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B580" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C580">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B581" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C581">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B582" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C582">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B583" s="1">
+        <v>66423</v>
+      </c>
+      <c r="C583">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B584" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C584">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B585" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C585">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B586" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C586">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B587" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C587">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B588" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C588">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B589" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C589">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B590" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C590">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B591" s="1">
+        <v>66609</v>
+      </c>
+      <c r="C591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B592" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C592">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B593" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C593">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B594" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C594">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B595" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C595">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B596" s="1">
+        <v>0</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B597" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C597">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B598" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C598">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B599" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C599">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B600" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B601" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C601">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B602" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C602">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B603" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B604" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C604">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B605" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C605">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B606" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B607" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C607">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B608" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C608">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B609" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C609">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B610" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B611" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C611">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B612" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B613" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C613">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B614" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B615" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B616" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B617" s="1">
+        <v>67056</v>
+      </c>
+      <c r="C617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B618" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C618">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B619" s="1">
+        <v>67525</v>
+      </c>
+      <c r="C619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B620" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C620">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B621" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B622" s="1">
+        <v>67663</v>
+      </c>
+      <c r="C622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B623" s="1">
+        <v>68337</v>
+      </c>
+      <c r="C623">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B624" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C624">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B625" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C625">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C626">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B627" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C627">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B628" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C628">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B629" s="1">
+        <v>66406</v>
+      </c>
+      <c r="C629">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B630" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C630">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B631" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C631">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B632" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C632">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B633" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C633">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B634" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C634">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B635" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C635">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B636" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C636">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B637" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C637">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B638" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C638">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B639" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C639">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B640" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C640">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B641" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C641">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B642" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C642">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C643">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B644" s="1">
+        <v>68345</v>
+      </c>
+      <c r="C644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B645" s="1">
+        <v>68420</v>
+      </c>
+      <c r="C645">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C646">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B647" s="1">
+        <v>0</v>
+      </c>
+      <c r="C647">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B648" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B649" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B650" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C650">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B651" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C651">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B652" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C652">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B653" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C653">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B654" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C654">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B655" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C655">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B656" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C656">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B657" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C657">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B658" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C658">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B659" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C659">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B660" s="1">
+        <v>0</v>
+      </c>
+      <c r="C660">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B661" s="1">
+        <v>64118</v>
+      </c>
+      <c r="C661">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B662" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C662">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B663" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C663">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B664" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C664">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B665" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B666" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C666">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B667" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C667">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B668" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B669" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C669">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B670" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C670">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B671" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C671">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B672" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C672">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B673" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C673">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B674" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B675" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C675">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B676" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C676">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B677" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C677">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B678" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B679" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C679">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B680" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B681" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C681">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B682" s="1">
+        <v>0</v>
+      </c>
+      <c r="C682">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B683" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C683">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B684" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C684">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B685" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C685">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B686" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C686">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B687" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C687">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B688" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C688">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B689" s="1">
+        <v>0</v>
+      </c>
+      <c r="C689">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B690" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B691" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C691">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B692" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C692">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B693" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C693">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B694" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C694">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B695" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C695">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B696" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C696">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B697" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C697">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B698" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C698">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B699" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C699">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B700" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B701" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C701">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B702" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C702">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B703" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C703">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B704" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C704">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B705" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C705">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B706" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C706">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B707" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C707">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B708" s="1">
+        <v>66075</v>
+      </c>
+      <c r="C708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B709" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C709">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B710" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C710">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B711" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C711">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B712" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C712">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B713" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C713">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B714" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C714">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B715" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C715">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B716" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C716">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B717" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C717">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B718" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C718">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B719" s="1">
+        <v>67026</v>
+      </c>
+      <c r="C719">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B720" s="1">
+        <v>67037</v>
+      </c>
+      <c r="C720">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B721" s="1">
+        <v>67045</v>
+      </c>
+      <c r="C721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B722" s="1">
+        <v>67063</v>
+      </c>
+      <c r="C722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B723" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B724" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C724">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B725" s="1">
+        <v>67420</v>
+      </c>
+      <c r="C725">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B726" s="1">
+        <v>67449</v>
+      </c>
+      <c r="C726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B727" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B728" s="1">
+        <v>67460</v>
+      </c>
+      <c r="C728">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B729" s="1">
+        <v>67572</v>
+      </c>
+      <c r="C729">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B730" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C730">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B731" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C731">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C732">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B733" s="1">
+        <v>67877</v>
+      </c>
+      <c r="C733">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B734" s="1">
+        <v>0</v>
+      </c>
+      <c r="C734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C735">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B736" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C736">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B737" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B738" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C738">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B739" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C739">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B740" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C740">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A741" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B741" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C741">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B742" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B743" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C743">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A744" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B744" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C744">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A745" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B745" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A746" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B746" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A747" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B747" s="1">
+        <v>67010</v>
+      </c>
+      <c r="C747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B748" s="1">
+        <v>67045</v>
+      </c>
+      <c r="C748">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B749" s="1">
+        <v>67449</v>
+      </c>
+      <c r="C749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B750" s="1">
+        <v>67801</v>
+      </c>
+      <c r="C750">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
+++ b/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AE7F30-77B1-4A6E-99DD-CE52917C6DDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE26D1AE-124E-4066-80C9-44290BAF0825}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" firstSheet="1" activeTab="1" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" firstSheet="1" activeTab="17" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly total" sheetId="1" state="hidden" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5942" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6700" uniqueCount="57">
   <si>
     <t>Library</t>
   </si>
@@ -33336,9 +33336,9 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F138D5-7324-41CA-BDE7-6178B269EFE3}">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C739"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -33361,6 +33361,8118 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C5">
+        <v>5156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66205</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C29">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C32">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C34">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C36">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C38">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C43">
+        <v>5795</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C44">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C47">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C48">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C50">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C58">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66106</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C61">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C62">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C68">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C69">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="1">
+        <v>68337</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C75">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C76">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C78">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C79">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C80">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C85">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C86">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C87">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C88">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C89">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C90">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66213</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C93">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C94">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C95">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66220</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C97">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C98">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66401</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>66713</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1">
+        <v>66748</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1">
+        <v>67037</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
+        <v>67045</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
+        <v>67110</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1">
+        <v>67124</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1">
+        <v>67301</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1">
+        <v>67460</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="1">
+        <v>67736</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="1">
+        <v>67756</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="1">
+        <v>67855</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="1">
+        <v>67880</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="1">
+        <v>67901</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="1">
+        <v>67950</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C141">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C142">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C144">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C145">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C146">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C148">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C150">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C152">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C153">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" s="1">
+        <v>66619</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" s="1">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C160">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C163">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C166">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C167">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C168">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C169">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C170">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" s="1">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C172">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C173">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C175">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B176" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C176">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C180">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C181">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C182">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C185">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C186">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C187">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B189" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B190" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C190">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B191" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C191">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B194" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C194">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B195" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C195">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196" s="1">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C197">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B199" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C199">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201" s="1">
+        <v>66205</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C202">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C203">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B204" s="1">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B205" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B206" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B207" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C207">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B208" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B209" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C209">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B210" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C210">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B211" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C211">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B212" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C212">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C213">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B214" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C214">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B215" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B216" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C216">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B217" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C217">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B218" s="1">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B219" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C219">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B220" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C220">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B221" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C221">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B222" s="1">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B223" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B225" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C225">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C228">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C229">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B230" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C230">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B231" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C231">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B233" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C233">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C234">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C235">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C236">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B237" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C237">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C238">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B240" s="1">
+        <v>66720</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B242" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B243" s="1">
+        <v>67037</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B244" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B245" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B246" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B247" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B248" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B249" s="1">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B250" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C250">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B251" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B252" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B253" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B254" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B255" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C255">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B256" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B257" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B258" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B259" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C259">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B260" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B261" s="1">
+        <v>66438</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B262" s="1">
+        <v>66535</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B263" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B264" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B266" s="1">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B267" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B268" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B269" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C269">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B271" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B272" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B273" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C273">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B274" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C275">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B276" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C276">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B277" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C277">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B278" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C278">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B279" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C279">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B280" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C280">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B281" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C281">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B282" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C282">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B283" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C283">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B284" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C284">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B285" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C285">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B286" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C286">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B287" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C287">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B288" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C288">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B289" s="1">
+        <v>66783</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B290" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B291" s="1">
+        <v>67039</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B292" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B293" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B294" s="1">
+        <v>67572</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B295" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B296" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B297" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B298" s="1">
+        <v>67736</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B300" s="1">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B301" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B302" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B303" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B304" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C304">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B305" s="1">
+        <v>66531</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B306" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B307" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B308" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B309" s="1">
+        <v>66835</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B310" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B311" s="1">
+        <v>67010</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B312" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B313" s="1">
+        <v>67068</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B314" s="1">
+        <v>67337</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B315" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B316" s="1">
+        <v>67554</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B317" s="1">
+        <v>67561</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B318" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B320" s="1">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B321" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C321">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C322">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C323">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C324">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B325" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B326" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C326">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B327" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B328" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C328">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B329" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C329">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B330" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B332" s="1">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B333" s="1">
+        <v>64098</v>
+      </c>
+      <c r="C333">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B334" s="1">
+        <v>64118</v>
+      </c>
+      <c r="C334">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B335" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C335">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C336">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C337">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B338" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B339" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C339">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B340" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C340">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B341" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C341">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B342" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C342">
+        <v>8417</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B343" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C343">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C345">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B346" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C346">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B347" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C347">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B348" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C348">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B349" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C350">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B351" s="1">
+        <v>66442</v>
+      </c>
+      <c r="C351">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B353" s="1">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B354" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C355">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B356" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C356">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C357">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C358">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C359">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B360" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C360">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C361">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B362" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C362">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B363" s="1">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B364" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C364">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B365" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C365">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B366" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C366">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B367" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C367">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B368" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C368">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B369" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B371" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C371">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B372" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C372">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B373" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C373">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B374" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B375" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C375">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B377" s="1">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B378" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C378">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C379">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B380" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C380">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B381" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C381">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B382" s="1">
+        <v>66429</v>
+      </c>
+      <c r="C382">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B383" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C383">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B384" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C384">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B385" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C385">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B386" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B387" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C388">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C389">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C390">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C391">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B392" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C392">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B393" s="1">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B394" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C394">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B395" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B396" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C396">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B397" s="1">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B398" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B399" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C399">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B400" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C400">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B401" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B402" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C402">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C403">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C404">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B405" s="1">
+        <v>0</v>
+      </c>
+      <c r="C405">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C406">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B408" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C408">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B409" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C409">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B410" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C410">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B411" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C411">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B412" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C412">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B413" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C413">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B414" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C414">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B415" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B416" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B417" s="1">
+        <v>66830</v>
+      </c>
+      <c r="C417">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B418" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C418">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B419" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C419">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B420" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C420">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B421" s="1">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C422">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C423">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B424" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C424">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B425" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C425">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B426" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C426">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B427" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C427">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B428" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C428">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B429" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C429">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B430" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C430">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C431">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B432" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C432">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B433" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C433">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B435" s="1">
+        <v>67357</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B436" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B437" s="1">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C438">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B439" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C439">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B440" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B441" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B442" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C442">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B443" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C443">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B444" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C444">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B445" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C445">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B446" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B447" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C447">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B448" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B449" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C449">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B450" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C450">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B451" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C451">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B452" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C452">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B453" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C453">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B454" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C454">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B455" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C455">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B456" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C456">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B457" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C457">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B458" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C458">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B459" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C459">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C460">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B461" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B462" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C462">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B463" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C463">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B464" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C464">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B465" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C465">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B466" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C466">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B467" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C467">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B468" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C468">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B469" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B470" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C470">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B471" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C471">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B472" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B473" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B474" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B475" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C475">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B476" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C476">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B477" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C477">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B478" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B479" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B480" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C480">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B481" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C481">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B482" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B483" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B484" s="1">
+        <v>66713</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66720</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66748</v>
+      </c>
+      <c r="C486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B487" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B488" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C488">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B489" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B490" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B491" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C491">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B492" s="1">
+        <v>66935</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B493" s="1">
+        <v>67010</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B494" s="1">
+        <v>67026</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B495" s="1">
+        <v>67037</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B496" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B497" s="1">
+        <v>67063</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B498" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B499" s="1">
+        <v>67110</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B500" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B501" s="1">
+        <v>67124</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B502" s="1">
+        <v>67152</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B503" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B504" s="1">
+        <v>67449</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B505" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B506" s="1">
+        <v>67504</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C507">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B508" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B509" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C509">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B510" s="1">
+        <v>67645</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B511" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B512" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B513" s="1">
+        <v>67860</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B514" s="1">
+        <v>67901</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B515" s="1">
+        <v>0</v>
+      </c>
+      <c r="C515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B516" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C516">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B517" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B518" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C518">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B519" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B520" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C520">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B521" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C521">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B522" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C522">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B523" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C523">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B524" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C524">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B525" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C525">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B526" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C526">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B527" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C527">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C528">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B529" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C529">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C530">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B531" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C531">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B533" s="1">
+        <v>0</v>
+      </c>
+      <c r="C533">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B534" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C534">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B535" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C535">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B536" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C536">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B537" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B538" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C538">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B539" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C539">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B540" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C540">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B541" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C541">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B542" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C542">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B543" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C543">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B544" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C544">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B545" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C545">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B546" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C546">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B547" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C547">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B548" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C548">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B549" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B550" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B551" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B552" s="1">
+        <v>66743</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B553" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B554" s="1">
+        <v>67301</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B555" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B556" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C557">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B558" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C558">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B559" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C559">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B560" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C560">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C562">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66607</v>
+      </c>
+      <c r="C563">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B564" s="1">
+        <v>0</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B565" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C566">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B567" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C567">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B568" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B569" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B570" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C570">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B571" s="1">
+        <v>0</v>
+      </c>
+      <c r="C571">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B572" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C572">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B573" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C573">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B574" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66541</v>
+      </c>
+      <c r="C575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B576" s="1">
+        <v>0</v>
+      </c>
+      <c r="C576">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C577">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C578">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B579" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B580" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C580">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B581" s="1">
+        <v>0</v>
+      </c>
+      <c r="C581">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B582" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C582">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B583" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C583">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B584" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C584">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B585" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C585">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B586" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C586">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B587" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C587">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C588">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B589" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B590" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C590">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B591" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C591">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B592" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C592">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B593" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C593">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B594" s="1">
+        <v>66423</v>
+      </c>
+      <c r="C594">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B595" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C595">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B596" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C596">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B597" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C597">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B598" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C598">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B599" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C599">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B600" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C600">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B601" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C601">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B602" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C602">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B603" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C603">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B604" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C604">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B606" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C606">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B607" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C607">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B608" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B609" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C609">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B610" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C610">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B611" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C611">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B612" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C612">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B613" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C613">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B614" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C614">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B615" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B616" s="1">
+        <v>66522</v>
+      </c>
+      <c r="C616">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B617" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C617">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B618" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C618">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B619" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B620" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C620">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B621" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C621">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B622" s="1">
+        <v>66945</v>
+      </c>
+      <c r="C622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B623" s="1">
+        <v>67154</v>
+      </c>
+      <c r="C623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B624" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B625" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B626" s="1">
+        <v>67860</v>
+      </c>
+      <c r="C626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B627" s="1">
+        <v>67880</v>
+      </c>
+      <c r="C627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B628" s="1">
+        <v>68337</v>
+      </c>
+      <c r="C628">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B629" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C629">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C630">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B631" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B632" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C632">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B633" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C633">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B634" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C634">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B635" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C635">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B636" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B637" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C637">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B638" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C638">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B639" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C639">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B640" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C640">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B641" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C641">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B642" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C642">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B643" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C643">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B644" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C644">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B645" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C645">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C646">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B647" s="1">
+        <v>68345</v>
+      </c>
+      <c r="C647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B648" s="1">
+        <v>68420</v>
+      </c>
+      <c r="C648">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B649" s="1">
+        <v>0</v>
+      </c>
+      <c r="C649">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B650" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C650">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B651" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C651">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B652" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C652">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B653" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C653">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B654" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C654">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B655" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C655">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B656" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C656">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B657" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C657">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B658" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C658">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B659" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C659">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B660" s="1">
+        <v>0</v>
+      </c>
+      <c r="C660">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B661" s="1">
+        <v>64118</v>
+      </c>
+      <c r="C661">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B662" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C662">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B663" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C663">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B664" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C664">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B665" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C665">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B666" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C666">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B667" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C667">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B668" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C668">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B669" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C669">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B670" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C670">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B671" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C671">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B672" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C672">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B673" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C673">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B674" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C674">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B675" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C675">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B676" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C676">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B677" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C677">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B678" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C678">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B679" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C679">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B680" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C680">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B681" s="1">
+        <v>0</v>
+      </c>
+      <c r="C681">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B682" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C682">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B683" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C683">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B684" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B685" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C685">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B686" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C686">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B687" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C687">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B688" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C688">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B689" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C689">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B690" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C690">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B691" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C691">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B692" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C692">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B693" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C693">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B694" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C694">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B695" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C695">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B696" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C696">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B697" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C697">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B698" s="1">
+        <v>0</v>
+      </c>
+      <c r="C698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B699" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C699">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B700" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C700">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B701" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C701">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B702" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C702">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B703" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C703">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B704" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C704">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B705" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C705">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B706" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C706">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B707" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B708" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C708">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B709" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B710" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B711" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B712" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C712">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B713" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C713">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B714" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B715" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C715">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B716" s="1">
+        <v>66713</v>
+      </c>
+      <c r="C716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B717" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C717">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B718" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C718">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B719" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C719">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B720" s="1">
+        <v>67010</v>
+      </c>
+      <c r="C720">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B721" s="1">
+        <v>67037</v>
+      </c>
+      <c r="C721">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B722" s="1">
+        <v>67045</v>
+      </c>
+      <c r="C722">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B723" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C723">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B724" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C724">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B725" s="1">
+        <v>67154</v>
+      </c>
+      <c r="C725">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B726" s="1">
+        <v>67420</v>
+      </c>
+      <c r="C726">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B727" s="1">
+        <v>67554</v>
+      </c>
+      <c r="C727">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B728" s="1">
+        <v>67558</v>
+      </c>
+      <c r="C728">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B729" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C729">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C730">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B731" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C731">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B732" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C732">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B733" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C733">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B734" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B735" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C735">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B736" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C736">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B737" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B738" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B739" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C739">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -33394,7 +41506,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C706"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
+++ b/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE26D1AE-124E-4066-80C9-44290BAF0825}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2227566-C019-465B-B5BD-37190BB3727E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" firstSheet="1" activeTab="17" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" firstSheet="1" activeTab="1" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly total" sheetId="1" state="hidden" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">March!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">May!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">November!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">October!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">October!$A$1:$C$735</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">September!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6700" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7453" uniqueCount="57">
   <si>
     <t>Library</t>
   </si>
@@ -8660,7 +8660,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33338,7 +33338,7 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:C739"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -41506,7 +41506,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C706"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -49289,6 +49289,10 @@
       <sortCondition ref="A1:A661"/>
     </sortState>
   </autoFilter>
+  <sortState ref="A2:C706">
+    <sortCondition ref="A2:A706"/>
+    <sortCondition ref="B2:B706"/>
+  </sortState>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A &quot;-&quot; indicates zip codes that have been anonymized." sqref="B1" xr:uid="{D92B399E-F56A-4EF7-A3CB-B138F4765858}"/>
   </dataValidations>
@@ -49299,13 +49303,13 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80DC31A-AD51-4885-BB98-4F5D65DA2C63}">
   <sheetPr codeName="Sheet20"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C735"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49326,8 +49330,8076 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C5">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66205</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C27">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C33">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C37">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C38">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C43">
+        <v>5501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C44">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C47">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C48">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C51">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C53">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C56">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C58">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66106</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C60">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C61">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C64">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C67">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1">
+        <v>68337</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C74">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C75">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C76">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C77">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C79">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C83">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C88">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66106</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C92">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C93">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C94">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C95">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66213</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C98">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C99">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C100">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C101">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1">
+        <v>67037</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1">
+        <v>67063</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1">
+        <v>67154</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
+        <v>67219</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1">
+        <v>67525</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1">
+        <v>67558</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1">
+        <v>67736</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1">
+        <v>67756</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1">
+        <v>67860</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1">
+        <v>67880</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1">
+        <v>67901</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="1">
+        <v>67951</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C132">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C133">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C134">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C136">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C140">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C141">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C143">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C144">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="1">
+        <v>66619</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C151">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C153">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C154">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C156">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C158">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C159">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C160">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" s="1">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C165">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C168">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C169">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C173">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" s="1">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C175">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C176">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C177">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C180">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C181">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C182">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B184" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B185" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B186" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B187" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C187">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C188">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B189" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B190" s="1">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C191">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B194" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" s="1">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C198">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C200">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B202" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C202">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C203">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B204" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C204">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B205" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C205">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B206" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C206">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B207" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B208" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B209" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B210" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C210">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B211" s="1">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B212" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B214" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C214">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B215" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B216" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C216">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B217" s="1">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B218" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C218">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B220" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B222" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C222">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B223" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C223">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B224" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C224">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B225" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C225">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C226">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C228">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C229">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B230" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C230">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B231" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C232">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B233" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C233">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C234">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C235">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B237" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B240" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241" s="1">
+        <v>68355</v>
+      </c>
+      <c r="C241">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B242" s="1">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B243" s="1">
+        <v>64507</v>
+      </c>
+      <c r="C243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B244" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C244">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B245" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B246" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B247" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B248" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B249" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B250" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C250">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B251" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B252" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C252">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B253" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B254" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B256" s="1">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B258" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B259" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B260" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C260">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B261" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B262" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C262">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B263" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B264" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C264">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B265" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B266" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C266">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B267" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C267">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B268" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B269" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C269">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C270">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B271" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B272" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C272">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B273" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C273">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B274" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C274">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C275">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B276" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C276">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B277" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C277">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B278" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C278">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B279" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C279">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B280" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C280">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B281" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C281">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B282" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C282">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B283" s="1">
+        <v>66720</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B284" s="1">
+        <v>66783</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B285" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B286" s="1">
+        <v>66968</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B287" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B288" s="1">
+        <v>67056</v>
+      </c>
+      <c r="C288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B289" s="1">
+        <v>67104</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B290" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B291" s="1">
+        <v>67110</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B292" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B293" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B294" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B295" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B296" s="1">
+        <v>67756</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B297" s="1">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B298" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B299" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B300" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C300">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B301" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B302" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B303" s="1">
+        <v>66531</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B304" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B305" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B306" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B307" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C307">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B308" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B309" s="1">
+        <v>67110</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B310" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B311" s="1">
+        <v>67152</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C312">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B313" s="1">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B314" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B315" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C315">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B316" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C316">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B317" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C317">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B318" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C318">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B319" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C319">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B320" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B321" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C321">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C324">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B325" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C325">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B327" s="1">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B328" s="1">
+        <v>64079</v>
+      </c>
+      <c r="C328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B329" s="1">
+        <v>64098</v>
+      </c>
+      <c r="C329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B330" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C331">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C332">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B333" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C333">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B334" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C334">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B335" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C335">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C336">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C337">
+        <v>8371</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B338" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C338">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B339" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B340" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C340">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B341" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C341">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B342" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B343" s="1">
+        <v>66203</v>
+      </c>
+      <c r="C343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C344">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B346" s="1">
+        <v>66442</v>
+      </c>
+      <c r="C346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B348" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C348">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B349" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C349">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B351" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C351">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B352" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C352">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C353">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B354" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C354">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C355">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B356" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C357">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B359" s="1">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B360" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C360">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C361">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B362" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C362">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B363" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C363">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B364" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C364">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B365" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B366" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C366">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B367" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C367">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B368" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B369" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B371" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C371">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B372" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C372">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B373" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C373">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B374" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C374">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B375" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C376">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B377" s="1">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B378" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C379">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B380" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C380">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B381" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C381">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B382" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C382">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B383" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C383">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B384" s="1">
+        <v>66429</v>
+      </c>
+      <c r="C384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B385" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B386" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C386">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B387" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C387">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C388">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C391">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B392" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C392">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B393" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C393">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B394" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C394">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B395" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C395">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B396" s="1">
+        <v>0</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C397">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B398" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B399" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C399">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B400" s="1">
+        <v>0</v>
+      </c>
+      <c r="C400">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B401" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B402" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C402">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C403">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C404">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C406">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C407">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B408" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C408">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B409" s="1">
+        <v>0</v>
+      </c>
+      <c r="C409">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C410">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B411" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B412" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C412">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B413" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C413">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B414" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C414">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B415" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C415">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B416" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C416">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B417" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C417">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B418" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C418">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B419" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B420" s="1">
+        <v>66830</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B421" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C421">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B422" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C423">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B424" s="1">
+        <v>0</v>
+      </c>
+      <c r="C424">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C425">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B426" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C426">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B427" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C427">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B428" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C428">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B429" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C429">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B430" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C430">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C431">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B432" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C432">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B433" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C433">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C434">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B435" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C435">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B436" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C436">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B437" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C437">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B438" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C439">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B440" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B441" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C441">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B442" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C442">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B443" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C443">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B444" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C444">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B445" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C445">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B446" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C446">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B447" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C447">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B448" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C448">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B449" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C449">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B450" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C450">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B451" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C451">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B452" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C452">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B453" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C453">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B454" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B455" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C455">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B456" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C456">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B457" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C457">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B458" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B459" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C459">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B461" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C461">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B462" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C462">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B463" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C463">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B464" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C464">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B465" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C465">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B466" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C466">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B467" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C467">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B468" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B469" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B470" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C470">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B471" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C471">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B472" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B473" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B474" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C474">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B475" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C475">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B476" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C476">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B477" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C477">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B478" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B479" s="1">
+        <v>66713</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B480" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B481" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C481">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B482" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B483" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C483">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B484" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B485" s="1">
+        <v>67005</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B486" s="1">
+        <v>67026</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B487" s="1">
+        <v>67045</v>
+      </c>
+      <c r="C487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B488" s="1">
+        <v>67052</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B489" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B490" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B491" s="1">
+        <v>67110</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B492" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B493" s="1">
+        <v>67301</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B494" s="1">
+        <v>67645</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B495" s="1">
+        <v>67757</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C496">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B497" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B498" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C498">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B499" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C499">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B500" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C500">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B501" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C501">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B502" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C502">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B503" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C503">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B504" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C504">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B505" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C505">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B506" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C506">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B507" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C507">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B508" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C508">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B509" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C509">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B510" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C510">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B511" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C511">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B512" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C512">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B513" s="1">
+        <v>0</v>
+      </c>
+      <c r="C513">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B514" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C514">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B515" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C515">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B516" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C516">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B517" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C517">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B518" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C518">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B519" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C519">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B520" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C520">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B521" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C521">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B522" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C522">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B523" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C523">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B524" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C524">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B525" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C525">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B526" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C526">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B527" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C527">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C528">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B529" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C529">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C530">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B531" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C531">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C533">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B534" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B535" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C535">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B536" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C536">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B537" s="1">
+        <v>66701</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B538" s="1">
+        <v>66743</v>
+      </c>
+      <c r="C538">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B539" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B540" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C541">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B542" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C542">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B543" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B544" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B545" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B546" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C546">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B547" s="1">
+        <v>67951</v>
+      </c>
+      <c r="C547">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B548" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B549" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C549">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B550" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C550">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B551" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C551">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B552" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C552">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B553" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B554" s="1">
+        <v>66607</v>
+      </c>
+      <c r="C554">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B555" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C555">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B556" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C556">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B557" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C557">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B558" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C558">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B559" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C559">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B560" s="1">
+        <v>0</v>
+      </c>
+      <c r="C560">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C561">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B562" s="1">
+        <v>0</v>
+      </c>
+      <c r="C562">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B564" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C564">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B565" s="1">
+        <v>0</v>
+      </c>
+      <c r="C565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C566">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B567" s="1">
+        <v>67749</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B568" s="1">
+        <v>67757</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B569" s="1">
+        <v>0</v>
+      </c>
+      <c r="C569">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B570" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C570">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B571" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C571">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B572" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C572">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B573" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C573">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B574" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C574">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C575">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C576">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C577">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B579" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B580" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C580">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B581" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C581">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B582" s="1">
+        <v>66423</v>
+      </c>
+      <c r="C582">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B583" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C583">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B584" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C584">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B585" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C585">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B586" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C586">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B587" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C587">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B588" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C588">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B589" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C589">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B590" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C590">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B591" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B592" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C592">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B593" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C593">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B594" s="1">
+        <v>0</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B595" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C595">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B596" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B597" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C597">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B598" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C598">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B599" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B600" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C600">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B601" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C601">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B602" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C602">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B603" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C603">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B604" s="1">
+        <v>66522</v>
+      </c>
+      <c r="C604">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B605" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C605">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B606" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C606">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B607" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C607">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B608" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B609" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C609">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B610" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C610">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B611" s="1">
+        <v>67056</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B612" s="1">
+        <v>67063</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B613" s="1">
+        <v>67104</v>
+      </c>
+      <c r="C613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B614" s="1">
+        <v>67420</v>
+      </c>
+      <c r="C614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B615" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B616" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C616">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B617" s="1">
+        <v>67736</v>
+      </c>
+      <c r="C617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B618" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B619" s="1">
+        <v>68337</v>
+      </c>
+      <c r="C619">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B620" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C620">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C621">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B622" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B623" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C623">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B624" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C624">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B625" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C625">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B626" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C626">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B627" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C627">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B628" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C628">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B629" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C629">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B630" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C630">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B631" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B632" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C632">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B633" s="1">
+        <v>66522</v>
+      </c>
+      <c r="C633">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B634" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C634">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B635" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C635">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B636" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C636">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B637" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C637">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B638" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C638">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B639" s="1">
+        <v>68420</v>
+      </c>
+      <c r="C639">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B640" s="1">
+        <v>0</v>
+      </c>
+      <c r="C640">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B641" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C641">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B642" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B643" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C643">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B644" s="1">
+        <v>66526</v>
+      </c>
+      <c r="C644">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B645" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C645">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B646" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C646">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B647" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C647">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B648" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C648">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B649" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C649">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B650" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C650">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B651" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C651">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B652" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C652">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B653" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C653">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B654" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C654">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C655">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B656" s="1">
+        <v>0</v>
+      </c>
+      <c r="C656">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B657" s="1">
+        <v>64118</v>
+      </c>
+      <c r="C657">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B658" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B659" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B660" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C660">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B661" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C661">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B662" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C662">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B663" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C663">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B664" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C664">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B665" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C665">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B666" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C666">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B667" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C667">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B668" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C668">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B669" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C669">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B670" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C670">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B671" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C671">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B672" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C672">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B673" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C673">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B674" s="1">
+        <v>0</v>
+      </c>
+      <c r="C674">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B675" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B676" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C676">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B677" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B678" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C678">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B679" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C679">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B680" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C680">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B681" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C681">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B682" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B683" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C683">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B684" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C684">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B685" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B686" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C686">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B687" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C687">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B688" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C688">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B689" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C689">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B690" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C690">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B691" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C691">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B692" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C692">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B693" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C693">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B694" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B695" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C695">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B696" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B697" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C697">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B698" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C698">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B699" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C699">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B700" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C700">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B701" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C701">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B702" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C702">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B703" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C703">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B704" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B705" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C705">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B706" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C706">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B707" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C707">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B708" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C708">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B709" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C709">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B710" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C710">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B711" s="1">
+        <v>66720</v>
+      </c>
+      <c r="C711">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B712" s="1">
+        <v>66736</v>
+      </c>
+      <c r="C712">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B713" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C713">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B714" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C714">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B715" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C715">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B716" s="1">
+        <v>67005</v>
+      </c>
+      <c r="C716">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B717" s="1">
+        <v>67045</v>
+      </c>
+      <c r="C717">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B718" s="1">
+        <v>67110</v>
+      </c>
+      <c r="C718">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B719" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C719">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B720" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B721" s="1">
+        <v>67525</v>
+      </c>
+      <c r="C721">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B722" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B723" s="1">
+        <v>67663</v>
+      </c>
+      <c r="C723">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B724" s="1">
+        <v>67669</v>
+      </c>
+      <c r="C724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C725">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B726" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C726">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B727" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B728" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C728">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B729" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C729">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B730" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C730">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B731" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C731">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B732" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C732">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B733" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B734" s="1">
+        <v>67154</v>
+      </c>
+      <c r="C734">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B735" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C735">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{76ADA025-07CB-430F-BEF6-8792683D3C9C}"/>
+  <autoFilter ref="A1:C735" xr:uid="{76ADA025-07CB-430F-BEF6-8792683D3C9C}"/>
   <sortState ref="A2:C696">
     <sortCondition ref="A2:A696"/>
     <sortCondition ref="B2:B696"/>
@@ -49480,8 +57552,9 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>

--- a/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
+++ b/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2227566-C019-465B-B5BD-37190BB3727E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF08795F-DE96-4B00-B48E-33C18476ED48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" firstSheet="1" activeTab="1" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" firstSheet="1" activeTab="21" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly total" sheetId="1" state="hidden" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7453" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8172" uniqueCount="57">
   <si>
     <t>Library</t>
   </si>
@@ -41506,7 +41506,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C706"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -57427,9 +57427,9 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E281BB9B-3635-450C-9750-AAA8261D8A1F}">
   <sheetPr codeName="Sheet22"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C700"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -57451,6 +57451,7692 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64505</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C5">
+        <v>4837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66205</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C20">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>67037</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C28">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C34">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C36">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C37">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C42">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C43">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C46">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C47">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C49">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C55">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C57">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C58">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C59">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C65">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C69">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C70">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C72">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C74">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C75">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C76">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C78">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66075</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C82">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C84">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C85">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C86">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C87">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C88">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C89">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66220</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C91">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66701</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>66736</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>67010</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>67037</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>67042</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1">
+        <v>67045</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>67110</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1">
+        <v>67144</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1">
+        <v>67219</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
+        <v>67460</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
+        <v>67558</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1">
+        <v>67736</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1">
+        <v>67749</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1">
+        <v>67860</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1">
+        <v>67879</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1">
+        <v>67951</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="1">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C131">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C132">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C134">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C136">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C141">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C142">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C143">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C144">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" s="1">
+        <v>66619</v>
+      </c>
+      <c r="C147">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C148">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C150">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C151">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="1">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C153">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C157">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C158">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C159">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C160">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C164">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C166">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C167">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="1">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C170">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C172">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C173">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C175">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C176">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C177">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C178">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181" s="1">
+        <v>64485</v>
+      </c>
+      <c r="C181">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B183" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B184" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C184">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B185" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C185">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" s="1">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B187" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C187">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B188" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C189">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" s="1">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C191">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C193">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C194">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C195">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C196">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C197">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C198">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C200">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C201">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C204">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C209">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B211" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C211">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B212" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C213">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B214" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C214">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C215">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B216" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C216">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B217" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C217">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B218" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C218">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B220" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C220">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B221" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C221">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B222" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C222">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B223" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C223">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B224" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B225" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B230" s="1">
+        <v>67878</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B231" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C231">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B232" s="1">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B233" s="1">
+        <v>64507</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B237" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B240" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B241" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B242" s="1">
+        <v>66104</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B243" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B244" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B245" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B246" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B248" s="1">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B249" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B250" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C250">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B251" s="1">
+        <v>66075</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B252" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B253" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B254" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C254">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B255" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B256" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C256">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B257" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B258" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C258">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B259" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C259">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B260" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B261" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C261">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B262" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C262">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B263" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C263">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B264" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C264">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B265" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C265">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B266" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C266">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B267" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C267">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B268" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C268">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B269" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C270">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B271" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C271">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B272" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C272">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B273" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C273">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B274" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66701</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B276" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B277" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B278" s="1">
+        <v>67583</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B279" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B281" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B282" s="1">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B283" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B284" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C284">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B285" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C285">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B286" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B287" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C287">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B288" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B289" s="1">
+        <v>67110</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B290" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B291" s="1">
+        <v>67337</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B292" s="1">
+        <v>67460</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B293" s="1">
+        <v>67550</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B295" s="1">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B296" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C296">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B297" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C297">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B298" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C298">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B299" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C299">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B300" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C300">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B301" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C301">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B302" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B303" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C303">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B304" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C304">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B305" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B307" s="1">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B308" s="1">
+        <v>64098</v>
+      </c>
+      <c r="C308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B309" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B311" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C311">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B312" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C312">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B313" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C313">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B314" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C314">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B315" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C315">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B316" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C316">
+        <v>7927</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B317" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C317">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B318" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C318">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B319" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C319">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B320" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C320">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B321" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C322">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B323" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C324">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B325" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B326" s="1">
+        <v>66442</v>
+      </c>
+      <c r="C326">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B327" s="1">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B328" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C328">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B329" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C329">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B330" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C330">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C331">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C332">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B333" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C333">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B334" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C334">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B335" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C335">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C336">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B338" s="1">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B340" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B341" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C341">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B342" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C342">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B343" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C343">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C344">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C345">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B346" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C346">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B347" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B348" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C348">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B349" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C349">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B351" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B352" s="1">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C353">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B354" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C354">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B355" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C355">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B356" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66429</v>
+      </c>
+      <c r="C357">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C358">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C359">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B360" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C360">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C361">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B362" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B363" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C363">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B364" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C364">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B365" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C365">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B366" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C366">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B367" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B368" s="1">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B369" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C370">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B371" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B372" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C372">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B373" s="1">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B374" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B375" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C375">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C376">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B377" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B378" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B380" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C381">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B382" s="1">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C383">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B384" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C384">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B385" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C385">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B386" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C386">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B387" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C387">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B388" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C388">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C389">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66616</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B392" s="1">
+        <v>66830</v>
+      </c>
+      <c r="C392">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B393" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C393">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B394" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C394">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B395" s="1">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B396" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C396">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C397">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B398" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C398">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B399" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C399">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B400" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C400">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B401" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C401">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B402" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C402">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C403">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C404">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C405">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C406">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C407">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B408" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C408">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B409" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C410">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C411">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B412" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C412">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B413" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C413">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B414" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C414">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B415" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C415">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B416" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C416">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B417" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C417">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B418" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C418">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B419" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B420" s="1">
+        <v>66616</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B421" s="1">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B422" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C422">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B424" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C424">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B425" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C425">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B426" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C426">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B427" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C427">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B428" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B429" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C429">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B430" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C430">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C431">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B432" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C432">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B433" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C433">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C434">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B435" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C435">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B436" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C436">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B437" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C437">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B438" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C438">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B439" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C439">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B440" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B441" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C441">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B442" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C442">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B443" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B444" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C444">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B445" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C445">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B446" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C446">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B447" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B448" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C448">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B449" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C449">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B450" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B451" s="1">
+        <v>66713</v>
+      </c>
+      <c r="C451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B452" s="1">
+        <v>66733</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B453" s="1">
+        <v>66748</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B454" s="1">
+        <v>66762</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B455" s="1">
+        <v>66783</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B456" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B457" s="1">
+        <v>66846</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B458" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B459" s="1">
+        <v>66861</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C460">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B461" s="1">
+        <v>67010</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B462" s="1">
+        <v>67026</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B463" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B464" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B465" s="1">
+        <v>67432</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B466" s="1">
+        <v>67583</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B467" s="1">
+        <v>67860</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C468">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B469" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C469">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B470" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C470">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B471" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C471">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B472" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C472">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B473" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B474" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C474">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B475" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C475">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B476" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C476">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B477" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C477">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B478" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C478">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B479" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C479">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B480" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C480">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B481" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C481">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B482" s="1">
+        <v>0</v>
+      </c>
+      <c r="C482">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B483" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C483">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B484" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B485" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C485">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C486">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B487" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B488" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B489" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C489">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B490" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C490">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B491" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C491">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B492" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C492">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B493" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C493">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B494" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C494">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B495" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C495">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B496" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C496">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B497" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C497">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B498" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C498">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B499" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B500" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B501" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B502" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B503" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B504" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B505" s="1">
+        <v>67068</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B506" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C506">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B507" s="1">
+        <v>67124</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B508" s="1">
+        <v>67154</v>
+      </c>
+      <c r="C508">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B509" s="1">
+        <v>67301</v>
+      </c>
+      <c r="C509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B510" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B511" s="1">
+        <v>67525</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B512" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B513" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C513">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B514" s="1">
+        <v>67801</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B515" s="1">
+        <v>67901</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B516" s="1">
+        <v>67951</v>
+      </c>
+      <c r="C516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C517">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B518" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C518">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B519" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C519">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B520" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C520">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B521" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C521">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B522" s="1">
+        <v>0</v>
+      </c>
+      <c r="C522">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B523" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B524" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C524">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B525" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C525">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B526" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C526">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B527" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C527">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C528">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B529" s="1">
+        <v>0</v>
+      </c>
+      <c r="C529">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C530">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B531" s="1">
+        <v>0</v>
+      </c>
+      <c r="C531">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C532">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C533">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B534" s="1">
+        <v>67147</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B535" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B536" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B537" s="1">
+        <v>67835</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B538" s="1">
+        <v>0</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B539" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C539">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B540" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C540">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B541" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C541">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B542" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C542">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B543" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C543">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B544" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B545" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C545">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B546" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C546">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B547" s="1">
+        <v>66422</v>
+      </c>
+      <c r="C547">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B548" s="1">
+        <v>66423</v>
+      </c>
+      <c r="C548">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B549" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B550" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C550">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B551" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C551">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B552" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C552">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B553" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C553">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B554" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C554">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B555" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C555">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B556" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C556">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B557" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C557">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B558" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C558">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B559" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C559">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B560" s="1">
+        <v>0</v>
+      </c>
+      <c r="C560">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C561">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C562">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B563" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C563">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B564" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C564">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B565" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C565">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C566">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B567" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B568" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C568">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B569" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C569">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B570" s="1">
+        <v>66522</v>
+      </c>
+      <c r="C570">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B571" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C571">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B572" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C572">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B573" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C573">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B574" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C575">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B578" s="1">
+        <v>66968</v>
+      </c>
+      <c r="C578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B579" s="1">
+        <v>67449</v>
+      </c>
+      <c r="C579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B580" s="1">
+        <v>67951</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B581" s="1">
+        <v>68337</v>
+      </c>
+      <c r="C581">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B582" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C582">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C583">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B584" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B585" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C585">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B586" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C586">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B587" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C587">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B588" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C588">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B589" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C589">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B590" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C590">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B591" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B592" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C592">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B593" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B594" s="1">
+        <v>66522</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B595" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C595">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B596" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C596">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B597" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C597">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B598" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C598">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B599" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C599">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B600" s="1">
+        <v>68420</v>
+      </c>
+      <c r="C600">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B601" s="1">
+        <v>0</v>
+      </c>
+      <c r="C601">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B602" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C602">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B603" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C603">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B604" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C604">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B605" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C605">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B606" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C606">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B607" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C607">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B608" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C608">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B609" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C609">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B610" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C610">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B611" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C611">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B612" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C612">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B613" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C613">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B614" s="1">
+        <v>0</v>
+      </c>
+      <c r="C614">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B615" s="1">
+        <v>64118</v>
+      </c>
+      <c r="C615">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B616" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C616">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B617" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C617">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B618" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C618">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B619" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C619">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B620" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C620">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B621" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C621">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B622" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C622">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B623" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C623">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B624" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C624">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B625" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C625">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B626" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B627" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C627">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B628" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C628">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B629" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C629">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B630" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C630">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B631" s="1">
+        <v>0</v>
+      </c>
+      <c r="C631">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B632" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B633" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C633">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B634" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C634">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B635" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C635">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B636" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C636">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B637" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C637">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B638" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C638">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B639" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C639">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B640" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B641" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C641">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B642" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C642">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B643" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C643">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B644" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C644">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B645" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C645">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B646" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C646">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B647" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C647">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B648" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C648">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B649" s="1">
+        <v>0</v>
+      </c>
+      <c r="C649">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B650" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C650">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B651" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C651">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B652" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B653" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C653">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B654" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C654">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B655" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C655">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B656" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C656">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B657" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C657">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B658" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C658">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B659" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C659">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B660" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C660">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B661" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B662" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C662">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B663" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C663">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B664" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C664">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B665" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C665">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B666" s="1">
+        <v>66720</v>
+      </c>
+      <c r="C666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B667" s="1">
+        <v>66743</v>
+      </c>
+      <c r="C667">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B668" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C668">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B669" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C669">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B670" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C670">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B671" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C671">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B672" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C672">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B673" s="1">
+        <v>67045</v>
+      </c>
+      <c r="C673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B674" s="1">
+        <v>67110</v>
+      </c>
+      <c r="C674">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B675" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C675">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B676" s="1">
+        <v>67219</v>
+      </c>
+      <c r="C676">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B677" s="1">
+        <v>67449</v>
+      </c>
+      <c r="C677">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B678" s="1">
+        <v>67530</v>
+      </c>
+      <c r="C678">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B679" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C679">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B680" s="1">
+        <v>67663</v>
+      </c>
+      <c r="C680">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B681" s="1">
+        <v>67669</v>
+      </c>
+      <c r="C681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B682" s="1">
+        <v>67672</v>
+      </c>
+      <c r="C682">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B683" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C683">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B684" s="1">
+        <v>67757</v>
+      </c>
+      <c r="C684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C685">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B686" s="1">
+        <v>67834</v>
+      </c>
+      <c r="C686">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B687" s="1">
+        <v>67864</v>
+      </c>
+      <c r="C687">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B688" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C688">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B689" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C689">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B690" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B691" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C691">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B692" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B693" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C693">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B694" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C694">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B695" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C695">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B696" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B697" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B698" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B699" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B700" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C700">
         <v>2</v>
       </c>
     </row>

--- a/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
+++ b/statistics_files/2023/2023.d.monthly_circ_by_borrower.zipcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF08795F-DE96-4B00-B48E-33C18476ED48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721037F7-B343-4521-8C3D-084BDF0F04EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" firstSheet="1" activeTab="21" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" firstSheet="1" activeTab="23" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly total" sheetId="1" state="hidden" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8172" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8831" uniqueCount="57">
   <si>
     <t>Library</t>
   </si>
@@ -57429,7 +57429,7 @@
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:C700"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -65169,9 +65169,9 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB9782-1E9D-42E0-A87D-FAC2219B8813}">
   <sheetPr codeName="Sheet24"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C639"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -65194,6 +65194,7024 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64440</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>64484</v>
+      </c>
+      <c r="C5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C6">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>66205</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C30">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C34">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C39">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C42">
+        <v>4877</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C43">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C46">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C49">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C54">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C56">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C61">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C62">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C63">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1">
+        <v>68337</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C67">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C68">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C70">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C72">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C73">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C75">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C77">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>66062</v>
+      </c>
+      <c r="C78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>66075</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C80">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66102</v>
+      </c>
+      <c r="C81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C82">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66111</v>
+      </c>
+      <c r="C83">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>66112</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>66113</v>
+      </c>
+      <c r="C85">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>66213</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>66216</v>
+      </c>
+      <c r="C89">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>66218</v>
+      </c>
+      <c r="C90">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>66220</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>66226</v>
+      </c>
+      <c r="C92">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C93">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>66835</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>66839</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>67005</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>67045</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>67068</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>67152</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>67156</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1">
+        <v>67219</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1">
+        <v>67432</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1">
+        <v>67460</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>67467</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
+        <v>67579</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1">
+        <v>67736</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1">
+        <v>67752</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1">
+        <v>67757</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1">
+        <v>67839</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1">
+        <v>67879</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1">
+        <v>67951</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C128">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C129">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C131">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C134">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C137">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C138">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C139">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C140">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="1">
+        <v>66546</v>
+      </c>
+      <c r="C141">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C143">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C144">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="1">
+        <v>66544</v>
+      </c>
+      <c r="C145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C146">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C151">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C153">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C154">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" s="1">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C158">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" s="1">
+        <v>66024</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C160">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C161">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="1">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="1">
+        <v>64501</v>
+      </c>
+      <c r="C166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C168">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C169">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C171">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C172">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C173">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C174">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B177" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C177">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B178" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179" s="1">
+        <v>66090</v>
+      </c>
+      <c r="C179">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" s="1">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B181" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C181">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B182" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B183" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B184" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C184">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B185" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C185">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" s="1">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C189">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191" s="1">
+        <v>66025</v>
+      </c>
+      <c r="C191">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C192">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C193">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C194">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C196">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C197">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C200">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B201" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C201">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" s="1">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B203" s="1">
+        <v>66008</v>
+      </c>
+      <c r="C203">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C204">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B205" s="1">
+        <v>66035</v>
+      </c>
+      <c r="C205">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B206" s="1">
+        <v>66041</v>
+      </c>
+      <c r="C206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" s="1">
+        <v>66094</v>
+      </c>
+      <c r="C207">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C208">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C209">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C210">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B211" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C211">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B212" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C212">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B213" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B214" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C214">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C215">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B216" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C216">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B217" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B218" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" s="1">
+        <v>67878</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B220" s="1">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B221" s="1">
+        <v>64506</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B222" s="1">
+        <v>66017</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B223" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B224" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B226" s="1">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227" s="1">
+        <v>66058</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B229" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B230" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B231" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C231">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B232" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C232">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B233" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C233">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C234">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66432</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B236" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C236">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B237" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C237">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B239" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C239">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B240" s="1">
+        <v>66509</v>
+      </c>
+      <c r="C240">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C241">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B242" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C242">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B243" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B244" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C244">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B245" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C245">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B246" s="1">
+        <v>66552</v>
+      </c>
+      <c r="C246">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B247" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C247">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B248" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B249" s="1">
+        <v>66968</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B250" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B251" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B252" s="1">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B253" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B254" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B255" s="1">
+        <v>66424</v>
+      </c>
+      <c r="C255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B256" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B257" s="1">
+        <v>66439</v>
+      </c>
+      <c r="C257">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B258" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B259" s="1">
+        <v>66612</v>
+      </c>
+      <c r="C259">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B261" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B262" s="1">
+        <v>67501</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B263" s="1">
+        <v>67504</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B265" s="1">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B266" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C266">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B267" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B268" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C268">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B269" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C269">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C270">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B271" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C271">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B272" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C272">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B273" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B274" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B275" s="1">
+        <v>66202</v>
+      </c>
+      <c r="C275">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B276" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B277" s="1">
+        <v>66227</v>
+      </c>
+      <c r="C277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B279" s="1">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B280" s="1">
+        <v>64055</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B281" s="1">
+        <v>64152</v>
+      </c>
+      <c r="C281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B282" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C282">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B283" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C283">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B284" s="1">
+        <v>66020</v>
+      </c>
+      <c r="C284">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B285" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C285">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B286" s="1">
+        <v>66027</v>
+      </c>
+      <c r="C286">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B287" s="1">
+        <v>66043</v>
+      </c>
+      <c r="C287">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B288" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C288">
+        <v>7151</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B289" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C289">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B290" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C290">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B291" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C291">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B292" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B293" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C293">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B294" s="1">
+        <v>66210</v>
+      </c>
+      <c r="C294">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B295" s="1">
+        <v>66442</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B296" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B298" s="1">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B299" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C299">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B300" s="1">
+        <v>66018</v>
+      </c>
+      <c r="C300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B301" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C301">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B302" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C302">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B303" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C303">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B304" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C304">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B305" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C305">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B306" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C306">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B307" s="1">
+        <v>66103</v>
+      </c>
+      <c r="C307">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B308" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B309" s="1">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B311" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C311">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B312" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C312">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B313" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C313">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B314" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C314">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B315" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C315">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B316" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C316">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B317" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C317">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B318" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C318">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B319" s="1">
+        <v>66856</v>
+      </c>
+      <c r="C319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B320" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C320">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B321" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C321">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B322" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B323" s="1">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B324" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C324">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B325" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C325">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B326" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C326">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B327" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C327">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B328" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C328">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B329" s="1">
+        <v>66215</v>
+      </c>
+      <c r="C329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B330" s="1">
+        <v>66429</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B331" s="1">
+        <v>66440</v>
+      </c>
+      <c r="C331">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B332" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C332">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B333" s="1">
+        <v>66512</v>
+      </c>
+      <c r="C333">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B334" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C334">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B335" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C335">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B336" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B337" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C337">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B338" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C338">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B339" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C339">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B340" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C340">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B341" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B343" s="1">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B344" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B345" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C345">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B346" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C346">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B347" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C347">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B348" s="1">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B349" s="1">
+        <v>66023</v>
+      </c>
+      <c r="C349">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B350" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C350">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B351" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B352" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B353" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B354" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B355" s="1">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B357" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C357">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B358" s="1">
+        <v>66413</v>
+      </c>
+      <c r="C358">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B359" s="1">
+        <v>66431</v>
+      </c>
+      <c r="C359">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B360" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C360">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B361" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C361">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B362" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B363" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C363">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B364" s="1">
+        <v>66543</v>
+      </c>
+      <c r="C364">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B365" s="1">
+        <v>66830</v>
+      </c>
+      <c r="C365">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B366" s="1">
+        <v>66833</v>
+      </c>
+      <c r="C366">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B367" s="1">
+        <v>66868</v>
+      </c>
+      <c r="C367">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B368" s="1">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C369">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B370" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C370">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B371" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C371">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B372" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B373" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C373">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B374" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C374">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B375" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B376" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C376">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B377" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C377">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B378" s="1">
+        <v>66075</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B379" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C379">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B380" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B381" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B382" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B383" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C383">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B384" s="1">
+        <v>67110</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B385" s="1">
+        <v>67335</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B386" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B387" s="1">
+        <v>67951</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C388">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B389" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B390" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B391" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C391">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B392" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C392">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B393" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C393">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B394" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C394">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B395" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B396" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C396">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B397" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C397">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B398" s="1">
+        <v>0</v>
+      </c>
+      <c r="C398">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B399" s="1">
+        <v>66006</v>
+      </c>
+      <c r="C399">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B400" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C400">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B401" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B402" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C402">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C403">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B404" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C404">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B405" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C405">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B406" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C406">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B407" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C407">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B408" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C408">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B409" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C409">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B410" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B411" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C411">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B412" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C412">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B413" s="1">
+        <v>66079</v>
+      </c>
+      <c r="C413">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B414" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C414">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B415" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C415">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B416" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C416">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B417" s="1">
+        <v>66401</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B418" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B419" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C419">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B420" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C420">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B421" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B422" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B423" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C423">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B424" s="1">
+        <v>66521</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B425" s="1">
+        <v>66523</v>
+      </c>
+      <c r="C425">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B426" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C426">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B427" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C427">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B428" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C428">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B429" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C429">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B430" s="1">
+        <v>66749</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B431" s="1">
+        <v>66801</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B432" s="1">
+        <v>66860</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B433" s="1">
+        <v>66871</v>
+      </c>
+      <c r="C433">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B434" s="1">
+        <v>66901</v>
+      </c>
+      <c r="C434">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B435" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B436" s="1">
+        <v>67063</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B437" s="1">
+        <v>67107</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B438" s="1">
+        <v>67301</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B439" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B440" s="1">
+        <v>67410</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B441" s="1">
+        <v>67449</v>
+      </c>
+      <c r="C441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B442" s="1">
+        <v>67456</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B443" s="1">
+        <v>67467</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C444">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B445" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C445">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B446" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B447" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C447">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B448" s="1">
+        <v>66047</v>
+      </c>
+      <c r="C448">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B449" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C449">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B450" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C450">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B451" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B452" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C452">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B453" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C453">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B454" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C454">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B455" s="1">
+        <v>66537</v>
+      </c>
+      <c r="C455">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B456" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C456">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B457" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C457">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B458" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C458">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B459" s="1">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B460" s="1">
+        <v>66014</v>
+      </c>
+      <c r="C460">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B461" s="1">
+        <v>66026</v>
+      </c>
+      <c r="C461">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B462" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C462">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B463" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C463">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B464" s="1">
+        <v>66040</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B465" s="1">
+        <v>66042</v>
+      </c>
+      <c r="C465">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B466" s="1">
+        <v>66049</v>
+      </c>
+      <c r="C466">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B467" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C467">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B468" s="1">
+        <v>66061</v>
+      </c>
+      <c r="C468">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B469" s="1">
+        <v>66064</v>
+      </c>
+      <c r="C469">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B470" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C470">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B471" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C471">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B472" s="1">
+        <v>66072</v>
+      </c>
+      <c r="C472">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B473" s="1">
+        <v>66083</v>
+      </c>
+      <c r="C473">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B474" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C474">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B475" s="1">
+        <v>66212</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B476" s="1">
+        <v>66411</v>
+      </c>
+      <c r="C476">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B477" s="1">
+        <v>66441</v>
+      </c>
+      <c r="C477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B478" s="1">
+        <v>66451</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B479" s="1">
+        <v>66502</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B480" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C480">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B481" s="1">
+        <v>67114</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B482" s="1">
+        <v>67663</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B483" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C483">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B484" s="1">
+        <v>67736</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C485">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B486" s="1">
+        <v>66050</v>
+      </c>
+      <c r="C486">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B487" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C487">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B488" s="1">
+        <v>66070</v>
+      </c>
+      <c r="C488">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B489" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C489">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B490" s="1">
+        <v>0</v>
+      </c>
+      <c r="C490">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B491" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C491">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B492" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C492">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B493" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C493">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B494" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C494">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B495" s="1">
+        <v>66510</v>
+      </c>
+      <c r="C495">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B496" s="1">
+        <v>0</v>
+      </c>
+      <c r="C496">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B497" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C497">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B499" s="1">
+        <v>0</v>
+      </c>
+      <c r="C499">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B500" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C500">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B501" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C501">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B502" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C502">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B503" s="1">
+        <v>67401</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B505" s="1">
+        <v>67878</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B506" s="1">
+        <v>0</v>
+      </c>
+      <c r="C506">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B507" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C507">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B508" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C508">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B509" s="1">
+        <v>66033</v>
+      </c>
+      <c r="C509">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B510" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C510">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B511" s="1">
+        <v>66078</v>
+      </c>
+      <c r="C511">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B512" s="1">
+        <v>66080</v>
+      </c>
+      <c r="C512">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B513" s="1">
+        <v>66508</v>
+      </c>
+      <c r="C513">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B514" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B515" s="1">
+        <v>66402</v>
+      </c>
+      <c r="C515">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B516" s="1">
+        <v>66409</v>
+      </c>
+      <c r="C516">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B517" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B518" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C518">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B519" s="1">
+        <v>66423</v>
+      </c>
+      <c r="C519">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B520" s="1">
+        <v>66507</v>
+      </c>
+      <c r="C520">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B521" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C521">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B522" s="1">
+        <v>66536</v>
+      </c>
+      <c r="C522">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B523" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C523">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B524" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C524">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C525">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B526" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C526">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B527" s="1">
+        <v>66611</v>
+      </c>
+      <c r="C527">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B528" s="1">
+        <v>66614</v>
+      </c>
+      <c r="C528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B529" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C529">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B530" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C530">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B531" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C531">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B532" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C532">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B533" s="1">
+        <v>66425</v>
+      </c>
+      <c r="C533">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B534" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C534">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B535" s="1">
+        <v>66515</v>
+      </c>
+      <c r="C535">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B536" s="1">
+        <v>66522</v>
+      </c>
+      <c r="C536">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B537" s="1">
+        <v>66527</v>
+      </c>
+      <c r="C537">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B538" s="1">
+        <v>66532</v>
+      </c>
+      <c r="C538">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B539" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C539">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B540" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C540">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B541" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C541">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B542" s="1">
+        <v>66736</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B543" s="1">
+        <v>67062</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B544" s="1">
+        <v>67104</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B545" s="1">
+        <v>67449</v>
+      </c>
+      <c r="C545">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B546" s="1">
+        <v>68337</v>
+      </c>
+      <c r="C546">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B547" s="1">
+        <v>68376</v>
+      </c>
+      <c r="C547">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C548">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B549" s="1">
+        <v>66403</v>
+      </c>
+      <c r="C549">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B550" s="1">
+        <v>66404</v>
+      </c>
+      <c r="C550">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B551" s="1">
+        <v>66408</v>
+      </c>
+      <c r="C551">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B552" s="1">
+        <v>66415</v>
+      </c>
+      <c r="C552">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B553" s="1">
+        <v>66416</v>
+      </c>
+      <c r="C553">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B554" s="1">
+        <v>66417</v>
+      </c>
+      <c r="C554">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B555" s="1">
+        <v>66427</v>
+      </c>
+      <c r="C555">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B556" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C556">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B557" s="1">
+        <v>66434</v>
+      </c>
+      <c r="C557">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B558" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B559" s="1">
+        <v>66534</v>
+      </c>
+      <c r="C559">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B560" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C560">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B561" s="1">
+        <v>66540</v>
+      </c>
+      <c r="C561">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B562" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C562">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B563" s="1">
+        <v>68345</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B564" s="1">
+        <v>68420</v>
+      </c>
+      <c r="C564">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B565" s="1">
+        <v>0</v>
+      </c>
+      <c r="C565">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B566" s="1">
+        <v>66414</v>
+      </c>
+      <c r="C566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B567" s="1">
+        <v>66418</v>
+      </c>
+      <c r="C567">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B568" s="1">
+        <v>66533</v>
+      </c>
+      <c r="C568">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B569" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C569">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B570" s="1">
+        <v>66542</v>
+      </c>
+      <c r="C570">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B571" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C571">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B572" s="1">
+        <v>66604</v>
+      </c>
+      <c r="C572">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B573" s="1">
+        <v>66605</v>
+      </c>
+      <c r="C573">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B574" s="1">
+        <v>66606</v>
+      </c>
+      <c r="C574">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B575" s="1">
+        <v>66615</v>
+      </c>
+      <c r="C575">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B576" s="1">
+        <v>66617</v>
+      </c>
+      <c r="C576">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B577" s="1">
+        <v>66618</v>
+      </c>
+      <c r="C577">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B578" s="1">
+        <v>0</v>
+      </c>
+      <c r="C578">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B579" s="1">
+        <v>66007</v>
+      </c>
+      <c r="C579">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B580" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B581" s="1">
+        <v>66044</v>
+      </c>
+      <c r="C581">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B582" s="1">
+        <v>66046</v>
+      </c>
+      <c r="C582">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B583" s="1">
+        <v>66048</v>
+      </c>
+      <c r="C583">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B584" s="1">
+        <v>66052</v>
+      </c>
+      <c r="C584">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B585" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C585">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B586" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C586">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B587" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B588" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B589" s="1">
+        <v>66073</v>
+      </c>
+      <c r="C589">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B590" s="1">
+        <v>66086</v>
+      </c>
+      <c r="C590">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B591" s="1">
+        <v>66087</v>
+      </c>
+      <c r="C591">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B592" s="1">
+        <v>66109</v>
+      </c>
+      <c r="C592">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B593" s="1">
+        <v>0</v>
+      </c>
+      <c r="C593">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B594" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B595" s="1">
+        <v>66060</v>
+      </c>
+      <c r="C595">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B596" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C596">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B597" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C597">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B598" s="1">
+        <v>66419</v>
+      </c>
+      <c r="C598">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B599" s="1">
+        <v>66436</v>
+      </c>
+      <c r="C599">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B600" s="1">
+        <v>66608</v>
+      </c>
+      <c r="C600">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B601" s="1">
+        <v>0</v>
+      </c>
+      <c r="C601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B602" s="1">
+        <v>66012</v>
+      </c>
+      <c r="C602">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B603" s="1">
+        <v>66021</v>
+      </c>
+      <c r="C603">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B604" s="1">
+        <v>66030</v>
+      </c>
+      <c r="C604">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B605" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C605">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B606" s="1">
+        <v>66071</v>
+      </c>
+      <c r="C606">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B607" s="1">
+        <v>66092</v>
+      </c>
+      <c r="C607">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B608" s="1">
+        <v>66524</v>
+      </c>
+      <c r="C608">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B609" s="1">
+        <v>66607</v>
+      </c>
+      <c r="C609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B610" s="1">
+        <v>0</v>
+      </c>
+      <c r="C610">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B611" s="1">
+        <v>66428</v>
+      </c>
+      <c r="C611">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B612" s="1">
+        <v>66516</v>
+      </c>
+      <c r="C612">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B613" s="1">
+        <v>66538</v>
+      </c>
+      <c r="C613">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B614" s="1">
+        <v>66550</v>
+      </c>
+      <c r="C614">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C615">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B616" s="1">
+        <v>66053</v>
+      </c>
+      <c r="C616">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B617" s="1">
+        <v>66067</v>
+      </c>
+      <c r="C617">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B618" s="1">
+        <v>66076</v>
+      </c>
+      <c r="C618">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B619" s="1">
+        <v>66095</v>
+      </c>
+      <c r="C619">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B620" s="1">
+        <v>66501</v>
+      </c>
+      <c r="C620">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B621" s="1">
+        <v>66528</v>
+      </c>
+      <c r="C621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B622" s="1">
+        <v>66539</v>
+      </c>
+      <c r="C622">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B623" s="1">
+        <v>67432</v>
+      </c>
+      <c r="C623">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B624" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C624">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B625" s="1">
+        <v>67701</v>
+      </c>
+      <c r="C625">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B626" s="1">
+        <v>67846</v>
+      </c>
+      <c r="C626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B627" s="1">
+        <v>66002</v>
+      </c>
+      <c r="C627">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B628" s="1">
+        <v>66016</v>
+      </c>
+      <c r="C628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B629" s="1">
+        <v>66032</v>
+      </c>
+      <c r="C629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B630" s="1">
+        <v>66054</v>
+      </c>
+      <c r="C630">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B631" s="1">
+        <v>66066</v>
+      </c>
+      <c r="C631">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B632" s="1">
+        <v>66088</v>
+      </c>
+      <c r="C632">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B633" s="1">
+        <v>66097</v>
+      </c>
+      <c r="C633">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B634" s="1">
+        <v>66547</v>
+      </c>
+      <c r="C634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B635" s="1">
+        <v>67002</v>
+      </c>
+      <c r="C635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B636" s="1">
+        <v>67154</v>
+      </c>
+      <c r="C636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B637" s="1">
+        <v>67357</v>
+      </c>
+      <c r="C637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B638" s="1">
+        <v>67601</v>
+      </c>
+      <c r="C638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B639" s="1">
+        <v>67654</v>
+      </c>
+      <c r="C639">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
